--- a/other/완료보고서 자료.xlsx
+++ b/other/완료보고서 자료.xlsx
@@ -1,44 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpaj1\Desktop\2022-2\Beauty\other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Documents\KDG\Beauty\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCD8ADA-7AA1-4E8A-AEBA-5A15D38B831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
     <sheet name="요구사항정의서" sheetId="2" r:id="rId2"/>
     <sheet name="템플릿목록" sheetId="3" r:id="rId3"/>
+    <sheet name="WBS" sheetId="4" r:id="rId4"/>
+    <sheet name="테이블 명세서" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>java1</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>java1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="787">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,10 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요구사항명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -915,17 +935,2143 @@
   </si>
   <si>
     <t>동적 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Main_bestItem</t>
+  </si>
+  <si>
+    <t>베스트아이템</t>
+  </si>
+  <si>
+    <t>대분류 베스트아이템 출력</t>
+  </si>
+  <si>
+    <t>Main_newItem</t>
+  </si>
+  <si>
+    <t>신상품</t>
+  </si>
+  <si>
+    <t>신상품 출력</t>
+  </si>
+  <si>
+    <t>상품페이지</t>
+  </si>
+  <si>
+    <t>Product_list</t>
+  </si>
+  <si>
+    <t>상품리스트 출력</t>
+  </si>
+  <si>
+    <t>해당 카테고리에 맞는 상품출력</t>
+  </si>
+  <si>
+    <t>정렬기능</t>
+  </si>
+  <si>
+    <t>Product_view</t>
+  </si>
+  <si>
+    <t>상품 상세보기</t>
+  </si>
+  <si>
+    <t>해당 상품상세보기</t>
+  </si>
+  <si>
+    <t>Product_addCart</t>
+  </si>
+  <si>
+    <t>장바구니 추가</t>
+  </si>
+  <si>
+    <t>상품 장바구니 추가</t>
+  </si>
+  <si>
+    <t>Product_addWish</t>
+  </si>
+  <si>
+    <t>위시리스트 추가</t>
+  </si>
+  <si>
+    <t>상품 위시리스트 추가</t>
+  </si>
+  <si>
+    <t>Product_addOrder</t>
+  </si>
+  <si>
+    <t>주문하기</t>
+  </si>
+  <si>
+    <t>상품 주문하기</t>
+  </si>
+  <si>
+    <t>주문페이지</t>
+  </si>
+  <si>
+    <t>Order_orderform</t>
+  </si>
+  <si>
+    <t>상품 주문페이지</t>
+  </si>
+  <si>
+    <t>회원 / 비회원 구분</t>
+  </si>
+  <si>
+    <t>Order_ordercomplete</t>
+  </si>
+  <si>
+    <t>주문완료 페이지</t>
+  </si>
+  <si>
+    <t>상품 주문완료 페이지</t>
+  </si>
+  <si>
+    <t>상품 구매내역 출력</t>
+  </si>
+  <si>
+    <t>게시판</t>
+  </si>
+  <si>
+    <t>Board_notice</t>
+  </si>
+  <si>
+    <t>공지사항</t>
+  </si>
+  <si>
+    <t>공지사항 페이지</t>
+  </si>
+  <si>
+    <t>Board_qna</t>
+  </si>
+  <si>
+    <t>문의하기</t>
+  </si>
+  <si>
+    <t>문의하기 페이지</t>
+  </si>
+  <si>
+    <t>Board_review</t>
+  </si>
+  <si>
+    <t>리뷰</t>
+  </si>
+  <si>
+    <t>리뷰 페이지</t>
+  </si>
+  <si>
+    <t>Board_event</t>
+  </si>
+  <si>
+    <t>이벤트</t>
+  </si>
+  <si>
+    <t>이벤트 페이지</t>
+  </si>
+  <si>
+    <t>상품등록</t>
+  </si>
+  <si>
+    <t>상품등록기능</t>
+  </si>
+  <si>
+    <t>상품삭제</t>
+  </si>
+  <si>
+    <t>상품삭제기능</t>
+  </si>
+  <si>
+    <t>삭제버튼 클릭시 해당 상품 삭제, 체크박스 선택시 다중 삭제 가능</t>
+  </si>
+  <si>
+    <t>상품검색</t>
+  </si>
+  <si>
+    <t>상품검색기능</t>
+  </si>
+  <si>
+    <t>상품명,상품번호/선택된 카테고리 내 검색</t>
+  </si>
+  <si>
+    <t>카테고리분류</t>
+  </si>
+  <si>
+    <t>카테고리선택</t>
+  </si>
+  <si>
+    <t>처음엔 전체 상품목록 출력,카테고리 선택시 선택된 카테고리 상품목록 출력,대분류 밑 전체 체크박스 클릭시 하위 카테고리 전부 체크되며 해당상품목록 출력</t>
+  </si>
+  <si>
+    <t>검색결과</t>
+  </si>
+  <si>
+    <t>상품검색결과출력</t>
+  </si>
+  <si>
+    <t>검색창에 선택한 검색유형과 키워드가 남아있도록 함,선택한 카테고리 내에서 검색가능</t>
+  </si>
+  <si>
+    <t>상품목록</t>
+  </si>
+  <si>
+    <t>상품목록출력</t>
+  </si>
+  <si>
+    <t>최신순으로 정렬해서 한페이지에 10개씩 출력되도록 함</t>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin_productRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin_productDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin_productSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin_searchResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin_productList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin_productCate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member_login</t>
+  </si>
+  <si>
+    <t>로그인(회원), 비회원 주문조회</t>
+  </si>
+  <si>
+    <t>비회원 주문조회 기능 미구현</t>
+  </si>
+  <si>
+    <t>Member_register</t>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 주소, 연락처 등 개인정보 입력 / 약관동의</t>
+  </si>
+  <si>
+    <t>아이디를 이메일로 사용하기 때문에 이메일 인증 필요</t>
+  </si>
+  <si>
+    <t>Member_find</t>
+  </si>
+  <si>
+    <t>아이디/비밀번호 찾기</t>
+  </si>
+  <si>
+    <t>이름, 휴대전화로 아이디 찾기 가능 / 이메일 인증을 통한 비밀번호 변경 가능</t>
+  </si>
+  <si>
+    <t>개인정보 보호를 위한 이메일 인증 후 비밀번호 변경 가능</t>
+  </si>
+  <si>
+    <t>Member_findIdResult</t>
+  </si>
+  <si>
+    <t>아이디 표시</t>
+  </si>
+  <si>
+    <t>Member_findPwResult</t>
+  </si>
+  <si>
+    <t>이메일 인증을 통한 비밀번호 변경 가능</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Beauty/board/notice_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Beauty/board/notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Beauty/board/qna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Beauty/board/qna_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Beauty/board/event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Beauty/board/event_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1문의 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1문의 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Beauty/board/re_popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 대분류에 따라 소분류 다르게 보이기,포인트 입력없이 할인가의 1% 자동계산,색상/사이즈는 다중선택가능하며 product_option테이블에 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산출물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 전원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-01~23-03-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 아키텍처 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 전원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계 및 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 아키텍처 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 전원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD, 테이블 명세서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리보드 v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진휘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강중현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진휘, 김동근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤사랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML/CSS, JS</t>
+  </si>
+  <si>
+    <t>기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java, Thymeleaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+  </si>
+  <si>
+    <t>등급혜택</t>
+  </si>
+  <si>
+    <t>주문조회</t>
+  </si>
+  <si>
+    <t>배송조회</t>
+  </si>
+  <si>
+    <t>적립금조회</t>
+  </si>
+  <si>
+    <t>기간조회</t>
+  </si>
+  <si>
+    <t>페이지처리</t>
+  </si>
+  <si>
+    <t>위시리스트조회</t>
+  </si>
+  <si>
+    <t>내 정보</t>
+  </si>
+  <si>
+    <t>내 정보 업데이트</t>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 페이지</t>
+  </si>
+  <si>
+    <t>장바구니 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 목록 출력, 위시리스트 출력(회원전용), 수량변경, 삭제(동적)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 옵션변경</t>
+  </si>
+  <si>
+    <t>장바구니 옵션변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 옵션 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 수량변경</t>
+  </si>
+  <si>
+    <t>장바구니 수량변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 수량 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootstrap_modal 이용해 색상조회, 색상별사이즈 조회, 변경시 동적변경 및 DB 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 수량 변경시 총 가격 동적변경 및 DB 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강중현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강중현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동근,박진휘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진휘, 김보성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QC 및 피드백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실서버 이관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모니터링/장애대응준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 교육 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-12~23-03-12</t>
+  </si>
+  <si>
+    <t>23-03-06~23-03-16</t>
+  </si>
+  <si>
+    <t>23-03-07~23-03-08</t>
+  </si>
+  <si>
+    <t>23-03-06~23-03-09</t>
+  </si>
+  <si>
+    <t>23-02-28~23-03-02</t>
+  </si>
+  <si>
+    <t>23-02-28~23-03-04</t>
+  </si>
+  <si>
+    <t>23-02-28~23-03-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-02-28~23-03-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-24~23-03-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-07~23-03-09</t>
+  </si>
+  <si>
+    <t>23-03-10~23-03-16</t>
+  </si>
+  <si>
+    <t>23-03-13~23-03-16</t>
+  </si>
+  <si>
+    <t>23-03-13~23-03-20</t>
+  </si>
+  <si>
+    <t>23-02-28~23-03-07</t>
+  </si>
+  <si>
+    <t>23-03-20~23-03-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-02-28~23-03-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-08~23-03-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-09~23-03-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-13~23-03-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-16~23-03-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-10~23-03-13</t>
+  </si>
+  <si>
+    <t>23-03-06~23-03-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-09, 23-03-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-17~23-03-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-14~23-03-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-02-28~23-03-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-02-28~23-03-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-03-17~23-03-21</t>
+  </si>
+  <si>
+    <t>23-03-17~23-03-22</t>
+  </si>
+  <si>
+    <t>23-03-13~23-03-15</t>
+  </si>
+  <si>
+    <t>1:실버 2:골드 3.다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK AUTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항, Q&amp;A, 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓴이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordercomplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordDisprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총할인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordDelivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usedPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderZip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderAddr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderAddr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipZip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipAddr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipAddr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordComplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 카드결제 , 2: 실시간 계좌이체, 3: 무통장입금, 4: 휴대폰결제, 5: 카카오페이, 6: 네이버페이</t>
+  </si>
+  <si>
+    <t>1: 결제대기, 2: 결제완료, 3: 주문완료, 4: 배송준비, 5: 배송완료, 6: 수취확인</t>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK AUTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodCate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodCate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일2</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumb3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일3</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumb4</t>
+  </si>
+  <si>
+    <t>썸네일4</t>
+  </si>
+  <si>
+    <t>thumb5</t>
+  </si>
+  <si>
+    <t>썸네일5</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumb6</t>
+  </si>
+  <si>
+    <t>썸네일6</t>
+  </si>
+  <si>
+    <t>detail1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품상세1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail2</t>
+  </si>
+  <si>
+    <t>상품상세2</t>
+  </si>
+  <si>
+    <t>detail3</t>
+  </si>
+  <si>
+    <t>상품상세3</t>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼용율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신축성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상기호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK AUTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품평 남긴사람 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만족도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 몸무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매한 제품 색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매한 제품 사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wishNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonmember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입약관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보약관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>위치정보약관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원약관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,6 +3086,59 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -962,7 +3161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -970,13 +3169,298 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,6 +3474,294 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1271,10 +4043,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1924,10 +4698,87 @@
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>117</v>
+        <v>354</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>312</v>
+      </c>
+      <c r="C60" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C61" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>322</v>
+      </c>
+      <c r="C66" t="s">
+        <v>309</v>
+      </c>
+      <c r="D66" t="s">
+        <v>323</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1937,11 +4788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274F2B3C-189D-422D-BDD1-6EAD16700B82}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1954,166 +4805,603 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E11" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E17" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="C18" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D18" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C20" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D20" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E20" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E12" t="s">
-        <v>215</v>
-      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E41" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2122,7 +5410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D933CC15-3B28-412F-96FB-6CA9D31670AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2139,13 +5427,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -2153,246 +5441,4536 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
         <v>127</v>
       </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
         <v>133</v>
       </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
         <v>131</v>
       </c>
-      <c r="C9" t="s">
-        <v>132</v>
-      </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
         <v>138</v>
       </c>
-      <c r="C10" t="s">
-        <v>139</v>
-      </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
         <v>143</v>
       </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
         <v>150</v>
       </c>
-      <c r="C21" t="s">
-        <v>151</v>
-      </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="7" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
+        <v>3</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>523</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
+        <v>4</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="47">
+        <v>44995</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="47">
+        <v>44995</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="47">
+        <v>44995</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E25" s="47">
+        <v>44991</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" s="47">
+        <v>44991</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E27" s="47">
+        <v>44993</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E28" s="47">
+        <v>45000</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E29" s="47">
+        <v>44993</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="47">
+        <v>44999</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E33" s="47">
+        <v>44992</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E34" s="47">
+        <v>44992</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E35" s="43">
+        <v>44992</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E45" s="43">
+        <v>45001</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E50" s="46">
+        <v>45005</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>521</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E53" s="62" t="s">
+        <v>521</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E54" s="62" t="s">
+        <v>522</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E55" s="62" t="s">
+        <v>521</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="26">
+        <v>5</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>6</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AD60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B2" s="83" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="L2" s="83" t="s">
+        <v>474</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>526</v>
+      </c>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
+      <c r="V2" s="83" t="s">
+        <v>474</v>
+      </c>
+      <c r="W2" s="84" t="s">
+        <v>549</v>
+      </c>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="86"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B3" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>477</v>
+      </c>
+      <c r="E3" s="91"/>
+      <c r="F3" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>480</v>
+      </c>
+      <c r="L3" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="M3" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="N3" s="92" t="s">
+        <v>477</v>
+      </c>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="S3" s="88" t="s">
+        <v>527</v>
+      </c>
+      <c r="T3" s="89" t="s">
+        <v>480</v>
+      </c>
+      <c r="V3" s="87" t="s">
+        <v>550</v>
+      </c>
+      <c r="W3" s="88" t="s">
+        <v>551</v>
+      </c>
+      <c r="X3" s="90" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="90" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="88" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC3" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD3" s="89" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B4" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" s="69"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>486</v>
+      </c>
+      <c r="J4" s="53"/>
+      <c r="L4" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="N4" s="95" t="s">
+        <v>499</v>
+      </c>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="T4" s="53"/>
+      <c r="V4" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="W4" s="55" t="s">
+        <v>558</v>
+      </c>
+      <c r="X4" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC4" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD4" s="53"/>
+    </row>
+    <row r="5" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="54" t="s">
+        <v>525</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>489</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="57" t="s">
+        <v>485</v>
+      </c>
+      <c r="I5" s="55"/>
+      <c r="J5" s="53"/>
+      <c r="L5" s="54" t="s">
+        <v>531</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>532</v>
+      </c>
+      <c r="N5" s="93" t="s">
+        <v>507</v>
+      </c>
+      <c r="O5" s="94"/>
+      <c r="P5" s="93" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="S5" s="55"/>
+      <c r="T5" s="53"/>
+      <c r="V5" s="58" t="s">
+        <v>562</v>
+      </c>
+      <c r="W5" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="X5" s="71" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="60" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC5" s="73" t="s">
+        <v>566</v>
+      </c>
+      <c r="AD5" s="61"/>
+    </row>
+    <row r="6" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>534</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>535</v>
+      </c>
+      <c r="N6" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="O6" s="94"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="S6" s="55"/>
+      <c r="T6" s="53"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B7" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="66" t="s">
+        <v>524</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="57">
+        <v>1</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="53"/>
+      <c r="L7" s="54" t="s">
+        <v>536</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>537</v>
+      </c>
+      <c r="N7" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="O7" s="94"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="S7" s="55"/>
+      <c r="T7" s="53"/>
+      <c r="V7" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="W7" s="84" t="s">
+        <v>567</v>
+      </c>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="86"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B8" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="66" t="s">
+        <v>500</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="57">
+        <v>0</v>
+      </c>
+      <c r="I8" s="55"/>
+      <c r="J8" s="53"/>
+      <c r="L8" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>538</v>
+      </c>
+      <c r="N8" s="93" t="s">
+        <v>516</v>
+      </c>
+      <c r="O8" s="94"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="S8" s="55"/>
+      <c r="T8" s="53"/>
+      <c r="V8" s="87" t="s">
+        <v>550</v>
+      </c>
+      <c r="W8" s="88" t="s">
+        <v>551</v>
+      </c>
+      <c r="X8" s="90" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="90" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="88" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC8" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD8" s="89" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B9" s="54" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="I9" s="55"/>
+      <c r="J9" s="53"/>
+      <c r="L9" s="54" t="s">
+        <v>539</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>540</v>
+      </c>
+      <c r="N9" s="95" t="s">
+        <v>499</v>
+      </c>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="57">
+        <v>0</v>
+      </c>
+      <c r="S9" s="55"/>
+      <c r="T9" s="53"/>
+      <c r="V9" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="W9" s="55" t="s">
+        <v>558</v>
+      </c>
+      <c r="X9" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC9" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD9" s="53"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B10" s="54" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="I10" s="55"/>
+      <c r="J10" s="53"/>
+      <c r="L10" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>542</v>
+      </c>
+      <c r="N10" s="95" t="s">
+        <v>499</v>
+      </c>
+      <c r="O10" s="95"/>
+      <c r="P10" s="93" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="S10" s="55"/>
+      <c r="T10" s="53"/>
+      <c r="V10" s="54" t="s">
+        <v>562</v>
+      </c>
+      <c r="W10" s="55" t="s">
+        <v>563</v>
+      </c>
+      <c r="X10" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC10" s="56" t="s">
+        <v>568</v>
+      </c>
+      <c r="AD10" s="53"/>
+    </row>
+    <row r="11" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="54" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>509</v>
+      </c>
+      <c r="E11" s="69"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="I11" s="55"/>
+      <c r="J11" s="53"/>
+      <c r="L11" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>544</v>
+      </c>
+      <c r="N11" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="O11" s="94"/>
+      <c r="P11" s="93" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="S11" s="55"/>
+      <c r="T11" s="53"/>
+      <c r="V11" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="W11" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="X11" s="71" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="60" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="75"/>
+    </row>
+    <row r="12" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="54" t="s">
+        <v>510</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="I12" s="55"/>
+      <c r="J12" s="53"/>
+      <c r="L12" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="N12" s="96" t="s">
+        <v>499</v>
+      </c>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="60" t="s">
+        <v>504</v>
+      </c>
+      <c r="S12" s="59"/>
+      <c r="T12" s="61"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+    </row>
+    <row r="13" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="54" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="E13" s="69"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="I13" s="55"/>
+      <c r="J13" s="53"/>
+      <c r="V13" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="W13" s="84" t="s">
+        <v>570</v>
+      </c>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="86"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B14" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>516</v>
+      </c>
+      <c r="E14" s="69"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="I14" s="55"/>
+      <c r="J14" s="53"/>
+      <c r="L14" s="83" t="s">
+        <v>474</v>
+      </c>
+      <c r="M14" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="86"/>
+      <c r="V14" s="87" t="s">
+        <v>550</v>
+      </c>
+      <c r="W14" s="88" t="s">
+        <v>551</v>
+      </c>
+      <c r="X14" s="90" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="90" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="88" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC14" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD14" s="89" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B15" s="54" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="E15" s="69"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="I15" s="55"/>
+      <c r="J15" s="53"/>
+      <c r="L15" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="M15" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="N15" s="90" t="s">
+        <v>477</v>
+      </c>
+      <c r="O15" s="91"/>
+      <c r="P15" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="S15" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="T15" s="89" t="s">
+        <v>480</v>
+      </c>
+      <c r="V15" s="76" t="s">
+        <v>571</v>
+      </c>
+      <c r="W15" s="77" t="s">
+        <v>558</v>
+      </c>
+      <c r="X15" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC15" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD15" s="53"/>
+    </row>
+    <row r="16" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>520</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="E16" s="72"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="60" t="s">
+        <v>504</v>
+      </c>
+      <c r="I16" s="59"/>
+      <c r="J16" s="61"/>
+      <c r="L16" s="54" t="s">
+        <v>600</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="N16" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="O16" s="69"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="S16" s="56" t="s">
+        <v>577</v>
+      </c>
+      <c r="T16" s="53"/>
+      <c r="V16" s="76" t="s">
+        <v>572</v>
+      </c>
+      <c r="W16" s="77" t="s">
+        <v>482</v>
+      </c>
+      <c r="X16" s="93" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="53"/>
+    </row>
+    <row r="17" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>602</v>
+      </c>
+      <c r="N17" s="68" t="s">
+        <v>603</v>
+      </c>
+      <c r="O17" s="69"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="S17" s="56" t="s">
+        <v>577</v>
+      </c>
+      <c r="T17" s="53"/>
+      <c r="V17" s="76" t="s">
+        <v>575</v>
+      </c>
+      <c r="W17" s="77" t="s">
+        <v>576</v>
+      </c>
+      <c r="X17" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC17" s="56" t="s">
+        <v>568</v>
+      </c>
+      <c r="AD17" s="53"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B18" s="83" t="s">
+        <v>474</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>609</v>
+      </c>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="86"/>
+      <c r="L18" s="54" t="s">
+        <v>588</v>
+      </c>
+      <c r="M18" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="N18" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="O18" s="69"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="S18" s="55"/>
+      <c r="T18" s="53"/>
+      <c r="V18" s="76" t="s">
+        <v>589</v>
+      </c>
+      <c r="W18" s="77" t="s">
+        <v>591</v>
+      </c>
+      <c r="X18" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="57">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="53"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B19" s="87" t="s">
+        <v>550</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>551</v>
+      </c>
+      <c r="D19" s="90" t="s">
+        <v>552</v>
+      </c>
+      <c r="E19" s="91"/>
+      <c r="F19" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="91"/>
+      <c r="H19" s="88" t="s">
+        <v>610</v>
+      </c>
+      <c r="I19" s="88" t="s">
+        <v>611</v>
+      </c>
+      <c r="J19" s="89" t="s">
+        <v>480</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="M19" s="55" t="s">
+        <v>582</v>
+      </c>
+      <c r="N19" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="O19" s="69"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="S19" s="55"/>
+      <c r="T19" s="53"/>
+      <c r="V19" s="76" t="s">
+        <v>592</v>
+      </c>
+      <c r="W19" s="77" t="s">
+        <v>593</v>
+      </c>
+      <c r="X19" s="93" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="53"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B20" s="54" t="s">
+        <v>600</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="D20" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="E20" s="94"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="L20" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="M20" s="55" t="s">
+        <v>604</v>
+      </c>
+      <c r="N20" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="O20" s="69"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="57">
+        <v>0</v>
+      </c>
+      <c r="S20" s="55"/>
+      <c r="T20" s="53"/>
+      <c r="V20" s="76" t="s">
+        <v>594</v>
+      </c>
+      <c r="W20" s="77" t="s">
+        <v>595</v>
+      </c>
+      <c r="X20" s="93" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="53"/>
+    </row>
+    <row r="21" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="E21" s="94"/>
+      <c r="F21" s="93" t="s">
+        <v>612</v>
+      </c>
+      <c r="G21" s="94"/>
+      <c r="H21" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="I21" s="56"/>
+      <c r="J21" s="53"/>
+      <c r="L21" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="N21" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="O21" s="69"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="57">
+        <v>0</v>
+      </c>
+      <c r="S21" s="55"/>
+      <c r="T21" s="53"/>
+      <c r="V21" s="79" t="s">
+        <v>597</v>
+      </c>
+      <c r="W21" s="80" t="s">
+        <v>598</v>
+      </c>
+      <c r="X21" s="97" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="61"/>
+    </row>
+    <row r="22" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>488</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>613</v>
+      </c>
+      <c r="E22" s="94"/>
+      <c r="F22" s="93" t="s">
+        <v>614</v>
+      </c>
+      <c r="G22" s="94"/>
+      <c r="H22" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="I22" s="55"/>
+      <c r="J22" s="53"/>
+      <c r="L22" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="M22" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="N22" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="O22" s="69"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="57">
+        <v>0</v>
+      </c>
+      <c r="S22" s="55"/>
+      <c r="T22" s="53"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B23" s="54" t="s">
+        <v>615</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>616</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="E23" s="94"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="57">
+        <v>0</v>
+      </c>
+      <c r="I23" s="55"/>
+      <c r="J23" s="53"/>
+      <c r="L23" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="M23" s="55" t="s">
+        <v>607</v>
+      </c>
+      <c r="N23" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="O23" s="69"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="S23" s="55"/>
+      <c r="T23" s="53"/>
+      <c r="V23" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="W23" s="84" t="s">
+        <v>729</v>
+      </c>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="86"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B24" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>618</v>
+      </c>
+      <c r="D24" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="E24" s="94"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="57">
+        <v>0</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="53"/>
+      <c r="L24" s="76" t="s">
+        <v>592</v>
+      </c>
+      <c r="M24" s="77" t="s">
+        <v>593</v>
+      </c>
+      <c r="N24" s="68" t="s">
+        <v>573</v>
+      </c>
+      <c r="O24" s="69"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="S24" s="52"/>
+      <c r="T24" s="53"/>
+      <c r="V24" s="87" t="s">
+        <v>550</v>
+      </c>
+      <c r="W24" s="88" t="s">
+        <v>551</v>
+      </c>
+      <c r="X24" s="90" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="90" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="88" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC24" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD24" s="89" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B25" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>620</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="E25" s="94"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="57">
+        <v>0</v>
+      </c>
+      <c r="I25" s="55"/>
+      <c r="J25" s="53"/>
+      <c r="L25" s="76" t="s">
+        <v>594</v>
+      </c>
+      <c r="M25" s="77" t="s">
+        <v>595</v>
+      </c>
+      <c r="N25" s="68" t="s">
+        <v>573</v>
+      </c>
+      <c r="O25" s="69"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="S25" s="56"/>
+      <c r="T25" s="53"/>
+      <c r="V25" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="W25" s="55" t="s">
+        <v>558</v>
+      </c>
+      <c r="X25" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC25" s="56" t="s">
+        <v>736</v>
+      </c>
+      <c r="AD25" s="53"/>
+    </row>
+    <row r="26" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="54" t="s">
+        <v>621</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>622</v>
+      </c>
+      <c r="D26" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="57">
+        <v>0</v>
+      </c>
+      <c r="I26" s="55"/>
+      <c r="J26" s="53"/>
+      <c r="L26" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="M26" s="59" t="s">
+        <v>608</v>
+      </c>
+      <c r="N26" s="71" t="s">
+        <v>516</v>
+      </c>
+      <c r="O26" s="72"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="S26" s="59"/>
+      <c r="T26" s="61"/>
+      <c r="V26" s="54" t="s">
+        <v>592</v>
+      </c>
+      <c r="W26" s="55" t="s">
+        <v>734</v>
+      </c>
+      <c r="X26" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="53"/>
+    </row>
+    <row r="27" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>624</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="57">
+        <v>0</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="53"/>
+      <c r="V27" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="W27" s="55" t="s">
+        <v>733</v>
+      </c>
+      <c r="X27" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="53"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B28" s="54" t="s">
+        <v>625</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="E28" s="94"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="57">
+        <v>0</v>
+      </c>
+      <c r="I28" s="55"/>
+      <c r="J28" s="53"/>
+      <c r="L28" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="M28" s="84" t="s">
+        <v>657</v>
+      </c>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="86"/>
+      <c r="V28" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="W28" s="55" t="s">
+        <v>735</v>
+      </c>
+      <c r="X28" s="68" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="53"/>
+    </row>
+    <row r="29" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="E29" s="94"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="57">
+        <v>0</v>
+      </c>
+      <c r="I29" s="55"/>
+      <c r="J29" s="53"/>
+      <c r="L29" s="87" t="s">
+        <v>658</v>
+      </c>
+      <c r="M29" s="88" t="s">
+        <v>659</v>
+      </c>
+      <c r="N29" s="90" t="s">
+        <v>552</v>
+      </c>
+      <c r="O29" s="91"/>
+      <c r="P29" s="90" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="88" t="s">
+        <v>554</v>
+      </c>
+      <c r="S29" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="T29" s="89" t="s">
+        <v>661</v>
+      </c>
+      <c r="V29" s="58" t="s">
+        <v>681</v>
+      </c>
+      <c r="W29" s="59" t="s">
+        <v>679</v>
+      </c>
+      <c r="X29" s="71" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="75"/>
+    </row>
+    <row r="30" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="54" t="s">
+        <v>627</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>628</v>
+      </c>
+      <c r="D30" s="93" t="s">
+        <v>629</v>
+      </c>
+      <c r="E30" s="94"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I30" s="55"/>
+      <c r="J30" s="53"/>
+      <c r="L30" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="M30" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="N30" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="O30" s="94"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="S30" s="56" t="s">
+        <v>664</v>
+      </c>
+      <c r="T30" s="53"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B31" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>631</v>
+      </c>
+      <c r="E31" s="94"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I31" s="55"/>
+      <c r="J31" s="53"/>
+      <c r="L31" s="54" t="s">
+        <v>578</v>
+      </c>
+      <c r="M31" s="55" t="s">
+        <v>579</v>
+      </c>
+      <c r="N31" s="93" t="s">
+        <v>665</v>
+      </c>
+      <c r="O31" s="94"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="57" t="s">
+        <v>666</v>
+      </c>
+      <c r="S31" s="55"/>
+      <c r="T31" s="53"/>
+      <c r="V31" s="83" t="s">
+        <v>737</v>
+      </c>
+      <c r="W31" s="84" t="s">
+        <v>738</v>
+      </c>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" s="85"/>
+      <c r="AC31" s="85"/>
+      <c r="AD31" s="86"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B32" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>633</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="E32" s="94"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I32" s="55"/>
+      <c r="J32" s="53"/>
+      <c r="L32" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="M32" s="55" t="s">
+        <v>668</v>
+      </c>
+      <c r="N32" s="93" t="s">
+        <v>665</v>
+      </c>
+      <c r="O32" s="94"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="57" t="s">
+        <v>663</v>
+      </c>
+      <c r="S32" s="55"/>
+      <c r="T32" s="53"/>
+      <c r="V32" s="87" t="s">
+        <v>739</v>
+      </c>
+      <c r="W32" s="88" t="s">
+        <v>740</v>
+      </c>
+      <c r="X32" s="90" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC32" s="88" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD32" s="89" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B33" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>635</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="E33" s="94"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I33" s="55"/>
+      <c r="J33" s="81"/>
+      <c r="L33" s="54" t="s">
+        <v>669</v>
+      </c>
+      <c r="M33" s="55" t="s">
+        <v>670</v>
+      </c>
+      <c r="N33" s="93" t="s">
+        <v>565</v>
+      </c>
+      <c r="O33" s="94"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="S33" s="56" t="s">
+        <v>568</v>
+      </c>
+      <c r="T33" s="53"/>
+      <c r="V33" s="54" t="s">
+        <v>742</v>
+      </c>
+      <c r="W33" s="55" t="s">
+        <v>743</v>
+      </c>
+      <c r="X33" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC33" s="56" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD33" s="53"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B34" s="54" t="s">
+        <v>636</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>637</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="E34" s="94"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I34" s="55"/>
+      <c r="J34" s="81"/>
+      <c r="L34" s="54" t="s">
+        <v>671</v>
+      </c>
+      <c r="M34" s="55" t="s">
+        <v>672</v>
+      </c>
+      <c r="N34" s="93" t="s">
+        <v>565</v>
+      </c>
+      <c r="O34" s="94"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="S34" s="56" t="s">
+        <v>568</v>
+      </c>
+      <c r="T34" s="53"/>
+      <c r="V34" s="54" t="s">
+        <v>745</v>
+      </c>
+      <c r="W34" s="55" t="s">
+        <v>746</v>
+      </c>
+      <c r="X34" s="93" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC34" s="56" t="s">
+        <v>568</v>
+      </c>
+      <c r="AD34" s="53"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B35" s="54" t="s">
+        <v>638</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>639</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="E35" s="94"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I35" s="55"/>
+      <c r="J35" s="81"/>
+      <c r="L35" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="M35" s="55" t="s">
+        <v>673</v>
+      </c>
+      <c r="N35" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="O35" s="94"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="57">
+        <v>0</v>
+      </c>
+      <c r="S35" s="55"/>
+      <c r="T35" s="53"/>
+      <c r="V35" s="54" t="s">
+        <v>534</v>
+      </c>
+      <c r="W35" s="55" t="s">
+        <v>748</v>
+      </c>
+      <c r="X35" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="AA35" s="70"/>
+      <c r="AB35" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC35" s="55"/>
+      <c r="AD35" s="53"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B36" s="54" t="s">
+        <v>640</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>641</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>629</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I36" s="55"/>
+      <c r="J36" s="81"/>
+      <c r="L36" s="54" t="s">
+        <v>584</v>
+      </c>
+      <c r="M36" s="55" t="s">
+        <v>674</v>
+      </c>
+      <c r="N36" s="93" t="s">
+        <v>675</v>
+      </c>
+      <c r="O36" s="94"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="57">
+        <v>0</v>
+      </c>
+      <c r="S36" s="55"/>
+      <c r="T36" s="53"/>
+      <c r="V36" s="54" t="s">
+        <v>750</v>
+      </c>
+      <c r="W36" s="55" t="s">
+        <v>751</v>
+      </c>
+      <c r="X36" s="93" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC36" s="55"/>
+      <c r="AD36" s="53"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B37" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="D37" s="93" t="s">
+        <v>631</v>
+      </c>
+      <c r="E37" s="94"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I37" s="70"/>
+      <c r="J37" s="78"/>
+      <c r="L37" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="M37" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="N37" s="93" t="s">
+        <v>675</v>
+      </c>
+      <c r="O37" s="94"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="57">
+        <v>0</v>
+      </c>
+      <c r="S37" s="55"/>
+      <c r="T37" s="53"/>
+      <c r="V37" s="54" t="s">
+        <v>753</v>
+      </c>
+      <c r="W37" s="55" t="s">
+        <v>754</v>
+      </c>
+      <c r="X37" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y37" s="94"/>
+      <c r="Z37" s="68" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA37" s="69"/>
+      <c r="AB37" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="55"/>
+      <c r="AD37" s="53"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B38" s="54" t="s">
+        <v>643</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>644</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="E38" s="94"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I38" s="70"/>
+      <c r="J38" s="78"/>
+      <c r="L38" s="54" t="s">
+        <v>677</v>
+      </c>
+      <c r="M38" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="N38" s="93" t="s">
+        <v>675</v>
+      </c>
+      <c r="O38" s="94"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="57">
+        <v>0</v>
+      </c>
+      <c r="S38" s="55"/>
+      <c r="T38" s="53"/>
+      <c r="V38" s="54" t="s">
+        <v>756</v>
+      </c>
+      <c r="W38" s="55" t="s">
+        <v>555</v>
+      </c>
+      <c r="X38" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y38" s="94"/>
+      <c r="Z38" s="68" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA38" s="69"/>
+      <c r="AB38" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC38" s="55"/>
+      <c r="AD38" s="53"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B39" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>644</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="E39" s="94"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I39" s="70"/>
+      <c r="J39" s="78"/>
+      <c r="L39" s="54" t="s">
+        <v>678</v>
+      </c>
+      <c r="M39" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="N39" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="O39" s="94"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="57">
+        <v>0</v>
+      </c>
+      <c r="S39" s="55"/>
+      <c r="T39" s="53"/>
+      <c r="V39" s="54" t="s">
+        <v>519</v>
+      </c>
+      <c r="W39" s="55" t="s">
+        <v>758</v>
+      </c>
+      <c r="X39" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y39" s="94"/>
+      <c r="Z39" s="55" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="57" t="s">
+        <v>760</v>
+      </c>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="53"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B40" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>644</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="E40" s="94"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I40" s="70"/>
+      <c r="J40" s="78"/>
+      <c r="L40" s="54" t="s">
+        <v>682</v>
+      </c>
+      <c r="M40" s="55" t="s">
+        <v>683</v>
+      </c>
+      <c r="N40" s="93" t="s">
+        <v>675</v>
+      </c>
+      <c r="O40" s="94"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="57">
+        <v>0</v>
+      </c>
+      <c r="S40" s="55"/>
+      <c r="T40" s="53"/>
+      <c r="V40" s="54" t="s">
+        <v>761</v>
+      </c>
+      <c r="W40" s="55" t="s">
+        <v>762</v>
+      </c>
+      <c r="X40" s="93" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y40" s="94"/>
+      <c r="Z40" s="55" t="s">
+        <v>763</v>
+      </c>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="53"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B41" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>648</v>
+      </c>
+      <c r="D41" s="93" t="s">
+        <v>649</v>
+      </c>
+      <c r="E41" s="94"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I41" s="70"/>
+      <c r="J41" s="78"/>
+      <c r="L41" s="54" t="s">
+        <v>684</v>
+      </c>
+      <c r="M41" s="55" t="s">
+        <v>540</v>
+      </c>
+      <c r="N41" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="O41" s="94"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="57">
+        <v>0</v>
+      </c>
+      <c r="S41" s="55"/>
+      <c r="T41" s="53"/>
+      <c r="V41" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="W41" s="55" t="s">
+        <v>764</v>
+      </c>
+      <c r="X41" s="93" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y41" s="94"/>
+      <c r="Z41" s="55" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA41" s="70"/>
+      <c r="AB41" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC41" s="55"/>
+      <c r="AD41" s="53"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B42" s="54" t="s">
+        <v>650</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>651</v>
+      </c>
+      <c r="D42" s="93" t="s">
+        <v>496</v>
+      </c>
+      <c r="E42" s="94"/>
+      <c r="F42" s="93" t="s">
+        <v>655</v>
+      </c>
+      <c r="G42" s="94"/>
+      <c r="H42" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I42" s="70"/>
+      <c r="J42" s="78"/>
+      <c r="L42" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="M42" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="N42" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="O42" s="94"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="57">
+        <v>0</v>
+      </c>
+      <c r="S42" s="55"/>
+      <c r="T42" s="81"/>
+      <c r="V42" s="54" t="s">
+        <v>766</v>
+      </c>
+      <c r="W42" s="55" t="s">
+        <v>767</v>
+      </c>
+      <c r="X42" s="93" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y42" s="94"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="57" t="s">
+        <v>768</v>
+      </c>
+      <c r="AC42" s="55"/>
+      <c r="AD42" s="53"/>
+    </row>
+    <row r="43" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="54" t="s">
+        <v>652</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>653</v>
+      </c>
+      <c r="D43" s="99" t="s">
+        <v>564</v>
+      </c>
+      <c r="E43" s="100"/>
+      <c r="F43" s="93" t="s">
+        <v>656</v>
+      </c>
+      <c r="G43" s="94"/>
+      <c r="H43" s="57">
+        <v>1</v>
+      </c>
+      <c r="I43" s="70"/>
+      <c r="J43" s="78"/>
+      <c r="L43" s="54" t="s">
+        <v>687</v>
+      </c>
+      <c r="M43" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="N43" s="93" t="s">
+        <v>675</v>
+      </c>
+      <c r="O43" s="94"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="57">
+        <v>0</v>
+      </c>
+      <c r="S43" s="55"/>
+      <c r="T43" s="81"/>
+      <c r="V43" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="W43" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="X43" s="97" t="s">
+        <v>769</v>
+      </c>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="64"/>
+      <c r="AA43" s="65"/>
+      <c r="AB43" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="61"/>
+    </row>
+    <row r="44" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>608</v>
+      </c>
+      <c r="D44" s="97" t="s">
+        <v>516</v>
+      </c>
+      <c r="E44" s="98"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="73" t="s">
+        <v>484</v>
+      </c>
+      <c r="I44" s="59"/>
+      <c r="J44" s="61"/>
+      <c r="L44" s="54" t="s">
+        <v>596</v>
+      </c>
+      <c r="M44" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="N44" s="93" t="s">
+        <v>573</v>
+      </c>
+      <c r="O44" s="94"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="57" t="s">
+        <v>690</v>
+      </c>
+      <c r="S44" s="55"/>
+      <c r="T44" s="81"/>
+    </row>
+    <row r="45" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L45" s="54" t="s">
+        <v>691</v>
+      </c>
+      <c r="M45" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="N45" s="93" t="s">
+        <v>693</v>
+      </c>
+      <c r="O45" s="94"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="57" t="s">
+        <v>690</v>
+      </c>
+      <c r="S45" s="55"/>
+      <c r="T45" s="81"/>
+      <c r="V45" s="83" t="s">
+        <v>474</v>
+      </c>
+      <c r="W45" s="84" t="s">
+        <v>770</v>
+      </c>
+      <c r="X45" s="85"/>
+      <c r="Y45" s="85"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="85"/>
+      <c r="AC45" s="85"/>
+      <c r="AD45" s="86"/>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B46" s="83" t="s">
+        <v>474</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>777</v>
+      </c>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="86"/>
+      <c r="L46" s="54" t="s">
+        <v>694</v>
+      </c>
+      <c r="M46" s="55" t="s">
+        <v>695</v>
+      </c>
+      <c r="N46" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="O46" s="94"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="S46" s="55"/>
+      <c r="T46" s="81"/>
+      <c r="V46" s="87" t="s">
+        <v>658</v>
+      </c>
+      <c r="W46" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="X46" s="90" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y46" s="91"/>
+      <c r="Z46" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA46" s="91"/>
+      <c r="AB46" s="88" t="s">
+        <v>610</v>
+      </c>
+      <c r="AC46" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD46" s="89" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B47" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>774</v>
+      </c>
+      <c r="D47" s="90" t="s">
+        <v>477</v>
+      </c>
+      <c r="E47" s="91"/>
+      <c r="F47" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="91"/>
+      <c r="H47" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="I47" s="88" t="s">
+        <v>775</v>
+      </c>
+      <c r="J47" s="89" t="s">
+        <v>776</v>
+      </c>
+      <c r="L47" s="54" t="s">
+        <v>697</v>
+      </c>
+      <c r="M47" s="55" t="s">
+        <v>698</v>
+      </c>
+      <c r="N47" s="93" t="s">
+        <v>573</v>
+      </c>
+      <c r="O47" s="94"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="S47" s="55"/>
+      <c r="T47" s="81"/>
+      <c r="V47" s="54" t="s">
+        <v>771</v>
+      </c>
+      <c r="W47" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="X47" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y47" s="69"/>
+      <c r="Z47" s="66"/>
+      <c r="AA47" s="67"/>
+      <c r="AB47" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC47" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD47" s="53"/>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B48" s="54" t="s">
+        <v>778</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>782</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>649</v>
+      </c>
+      <c r="E48" s="69"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="53"/>
+      <c r="L48" s="54" t="s">
+        <v>699</v>
+      </c>
+      <c r="M48" s="55" t="s">
+        <v>700</v>
+      </c>
+      <c r="N48" s="93" t="s">
+        <v>693</v>
+      </c>
+      <c r="O48" s="94"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="57" t="s">
+        <v>701</v>
+      </c>
+      <c r="S48" s="77"/>
+      <c r="T48" s="81"/>
+      <c r="V48" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="W48" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="X48" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y48" s="94"/>
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="67"/>
+      <c r="AB48" s="57" t="s">
+        <v>666</v>
+      </c>
+      <c r="AC48" s="56" t="s">
+        <v>772</v>
+      </c>
+      <c r="AD48" s="53"/>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B49" s="54" t="s">
+        <v>779</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>783</v>
+      </c>
+      <c r="D49" s="68" t="s">
+        <v>649</v>
+      </c>
+      <c r="E49" s="69"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="53"/>
+      <c r="L49" s="54" t="s">
+        <v>702</v>
+      </c>
+      <c r="M49" s="55" t="s">
+        <v>703</v>
+      </c>
+      <c r="N49" s="93" t="s">
+        <v>693</v>
+      </c>
+      <c r="O49" s="94"/>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="S49" s="77"/>
+      <c r="T49" s="81"/>
+      <c r="V49" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="W49" s="55" t="s">
+        <v>773</v>
+      </c>
+      <c r="X49" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y49" s="94"/>
+      <c r="Z49" s="66"/>
+      <c r="AA49" s="67"/>
+      <c r="AB49" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC49" s="56" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD49" s="53"/>
+    </row>
+    <row r="50" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="54" t="s">
+        <v>780</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>785</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>649</v>
+      </c>
+      <c r="E50" s="69"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="53"/>
+      <c r="L50" s="76" t="s">
+        <v>704</v>
+      </c>
+      <c r="M50" s="77" t="s">
+        <v>705</v>
+      </c>
+      <c r="N50" s="93" t="s">
+        <v>665</v>
+      </c>
+      <c r="O50" s="94"/>
+      <c r="P50" s="66"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="57" t="s">
+        <v>690</v>
+      </c>
+      <c r="S50" s="77"/>
+      <c r="T50" s="81"/>
+      <c r="V50" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="W50" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="X50" s="71" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y50" s="72"/>
+      <c r="Z50" s="64"/>
+      <c r="AA50" s="65"/>
+      <c r="AB50" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC50" s="59"/>
+      <c r="AD50" s="61"/>
+    </row>
+    <row r="51" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="58" t="s">
+        <v>781</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>786</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>784</v>
+      </c>
+      <c r="E51" s="72"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="61"/>
+      <c r="L51" s="76" t="s">
+        <v>706</v>
+      </c>
+      <c r="M51" s="77" t="s">
+        <v>707</v>
+      </c>
+      <c r="N51" s="93" t="s">
+        <v>665</v>
+      </c>
+      <c r="O51" s="94"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="S51" s="77"/>
+      <c r="T51" s="81"/>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="L52" s="76" t="s">
+        <v>708</v>
+      </c>
+      <c r="M52" s="77" t="s">
+        <v>709</v>
+      </c>
+      <c r="N52" s="93" t="s">
+        <v>665</v>
+      </c>
+      <c r="O52" s="94"/>
+      <c r="P52" s="66"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="S52" s="77"/>
+      <c r="T52" s="81"/>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="L53" s="76" t="s">
+        <v>710</v>
+      </c>
+      <c r="M53" s="77" t="s">
+        <v>711</v>
+      </c>
+      <c r="N53" s="93" t="s">
+        <v>693</v>
+      </c>
+      <c r="O53" s="94"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="57" t="s">
+        <v>701</v>
+      </c>
+      <c r="S53" s="77"/>
+      <c r="T53" s="81"/>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="L54" s="76" t="s">
+        <v>712</v>
+      </c>
+      <c r="M54" s="77" t="s">
+        <v>713</v>
+      </c>
+      <c r="N54" s="93" t="s">
+        <v>714</v>
+      </c>
+      <c r="O54" s="94"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="S54" s="77"/>
+      <c r="T54" s="81"/>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="L55" s="76" t="s">
+        <v>715</v>
+      </c>
+      <c r="M55" s="77" t="s">
+        <v>716</v>
+      </c>
+      <c r="N55" s="93" t="s">
+        <v>717</v>
+      </c>
+      <c r="O55" s="94"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="S55" s="77"/>
+      <c r="T55" s="81"/>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="L56" s="76" t="s">
+        <v>718</v>
+      </c>
+      <c r="M56" s="77" t="s">
+        <v>719</v>
+      </c>
+      <c r="N56" s="93" t="s">
+        <v>507</v>
+      </c>
+      <c r="O56" s="94"/>
+      <c r="P56" s="66"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="S56" s="77"/>
+      <c r="T56" s="81"/>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="L57" s="76" t="s">
+        <v>720</v>
+      </c>
+      <c r="M57" s="77" t="s">
+        <v>721</v>
+      </c>
+      <c r="N57" s="93" t="s">
+        <v>507</v>
+      </c>
+      <c r="O57" s="94"/>
+      <c r="P57" s="66"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="S57" s="77"/>
+      <c r="T57" s="81"/>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="L58" s="76" t="s">
+        <v>722</v>
+      </c>
+      <c r="M58" s="77" t="s">
+        <v>723</v>
+      </c>
+      <c r="N58" s="93" t="s">
+        <v>714</v>
+      </c>
+      <c r="O58" s="94"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="S58" s="77"/>
+      <c r="T58" s="81"/>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="L59" s="76" t="s">
+        <v>724</v>
+      </c>
+      <c r="M59" s="77" t="s">
+        <v>725</v>
+      </c>
+      <c r="N59" s="93" t="s">
+        <v>714</v>
+      </c>
+      <c r="O59" s="94"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="S59" s="77"/>
+      <c r="T59" s="81"/>
+    </row>
+    <row r="60" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L60" s="79" t="s">
+        <v>727</v>
+      </c>
+      <c r="M60" s="80" t="s">
+        <v>726</v>
+      </c>
+      <c r="N60" s="71" t="s">
+        <v>728</v>
+      </c>
+      <c r="O60" s="72"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="60" t="s">
+        <v>696</v>
+      </c>
+      <c r="S60" s="80"/>
+      <c r="T60" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="282">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="W45:AD45"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="W31:AD31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="W23:AD23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="M28:T28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="W13:AD13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/other/완료보고서 자료.xlsx
+++ b/other/완료보고서 자료.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Documents\KDG\Beauty\other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpaj1\Desktop\2022-2\Beauty\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BC9970-CD94-44BD-A9A1-BA7FA2D84A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4"/>
+    <workbookView xWindow="30855" yWindow="0" windowWidth="21600" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>java1</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="787">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3067,7 +3068,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -3460,7 +3461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3476,13 +3477,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -3515,20 +3510,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3542,9 +3525,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3554,67 +3534,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3647,38 +3570,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3713,6 +3606,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3722,14 +3630,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3737,31 +3642,43 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4043,11 +3960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4432,46 +4349,49 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>5</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -4479,174 +4399,174 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
         <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>72</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>73</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>6</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" t="s">
-        <v>77</v>
-      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
         <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -4654,21 +4574,21 @@
         <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -4676,107 +4596,118 @@
         <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>88</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>76</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
         <v>7</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>312</v>
-      </c>
-      <c r="C60" t="s">
-        <v>309</v>
-      </c>
-      <c r="D60" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="C61" t="s">
         <v>309</v>
       </c>
       <c r="D61" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" t="s">
+        <v>309</v>
+      </c>
+      <c r="D62" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="5" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>313</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" t="s">
         <v>309</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="5" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>314</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" t="s">
         <v>309</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="5" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>315</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" t="s">
         <v>309</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D65" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C66" t="s">
         <v>309</v>
       </c>
       <c r="D66" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>322</v>
+      </c>
+      <c r="C67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4788,7 +4719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -4805,603 +4736,603 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>295</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>296</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
         <v>298</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" t="s">
         <v>299</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
         <v>305</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>306</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>202</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" t="s">
         <v>206</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" t="s">
         <v>209</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="9" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>236</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
         <v>238</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>239</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>240</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" t="s">
         <v>242</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" t="s">
         <v>243</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" t="s">
         <v>245</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" t="s">
         <v>246</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" t="s">
         <v>250</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" t="s">
         <v>252</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" t="s">
         <v>255</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" t="s">
         <v>256</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
         <v>403</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" t="s">
         <v>405</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" t="s">
         <v>405</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="16" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
         <v>410</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" t="s">
         <v>408</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" t="s">
         <v>409</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="6" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="9" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" t="s">
         <v>289</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" t="s">
         <v>272</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" t="s">
         <v>290</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" t="s">
         <v>273</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" t="s">
         <v>274</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s">
         <v>291</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" t="s">
         <v>276</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" t="s">
         <v>277</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" t="s">
         <v>294</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" t="s">
         <v>279</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" t="s">
         <v>280</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" t="s">
         <v>292</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" t="s">
         <v>259</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" t="s">
         <v>261</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
         <v>262</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" t="s">
         <v>263</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" t="s">
         <v>264</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" t="s">
         <v>265</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" t="s">
         <v>266</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5410,7 +5341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5686,11 +5617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5702,1216 +5633,1234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="19" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" t="s">
         <v>452</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1.2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" t="s">
         <v>453</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2.1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" t="s">
         <v>339</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" t="s">
         <v>335</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>343</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>332</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" t="s">
         <v>339</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="49">
+      <c r="A8" s="20">
         <v>3</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>3.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>348</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>356</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" t="s">
         <v>339</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" t="s">
         <v>450</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>3.2</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>351</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>357</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>339</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" t="s">
         <v>459</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="16" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>3.3</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>350</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>358</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>339</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" t="s">
         <v>462</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="16" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>3.4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>349</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>359</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" t="s">
         <v>339</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" t="s">
         <v>473</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="16" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>3.5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>352</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>361</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" t="s">
         <v>339</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" t="s">
         <v>451</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="16" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>3.6</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>353</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>362</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" t="s">
         <v>472</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="16" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>3.7</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
         <v>355</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" t="s">
         <v>339</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" t="s">
         <v>523</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="16" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+      <c r="A16" s="20">
         <v>4</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>356</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>339</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="24">
         <v>44995</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>356</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" t="s">
         <v>339</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="24">
         <v>44995</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="24">
         <v>44995</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="22" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="23" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" t="s">
         <v>430</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" t="s">
         <v>339</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" t="s">
         <v>448</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
         <v>430</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>339</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" t="s">
         <v>456</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>357</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>339</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" t="s">
         <v>457</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="22" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
         <v>370</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" t="s">
         <v>432</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" t="s">
         <v>339</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="24">
         <v>44991</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" t="s">
         <v>432</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" t="s">
         <v>339</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="24">
         <v>44991</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" t="s">
         <v>432</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" t="s">
         <v>339</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="24">
         <v>44993</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" t="s">
         <v>373</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" t="s">
         <v>432</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" t="s">
         <v>339</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="24">
         <v>45000</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" t="s">
         <v>374</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" t="s">
         <v>432</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" t="s">
         <v>339</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="24">
         <v>44993</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" t="s">
         <v>375</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" t="s">
         <v>432</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" t="s">
         <v>339</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" t="s">
         <v>465</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" t="s">
         <v>376</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" t="s">
         <v>432</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" t="s">
         <v>339</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="24">
         <v>44999</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" t="s">
         <v>377</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" t="s">
         <v>432</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" t="s">
         <v>339</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" t="s">
         <v>463</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" t="s">
         <v>378</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" t="s">
         <v>432</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" t="s">
         <v>339</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="24">
         <v>44992</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" t="s">
         <v>379</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" t="s">
         <v>432</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" t="s">
         <v>339</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="24">
         <v>44992</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="25">
         <v>44992</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="22" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" t="s">
         <v>356</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D37" t="s">
         <v>339</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E37" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F37" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" t="s">
         <v>435</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D38" t="s">
         <v>339</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E38" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F38" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" t="s">
         <v>242</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" t="s">
         <v>356</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D39" t="s">
         <v>339</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E39" t="s">
         <v>447</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F39" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" t="s">
         <v>356</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D40" t="s">
         <v>339</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E40" t="s">
         <v>447</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F40" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E41" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F41" s="22" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" t="s">
         <v>250</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" t="s">
         <v>356</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D42" t="s">
         <v>339</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E42" t="s">
         <v>448</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F42" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" t="s">
         <v>255</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" t="s">
         <v>356</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D43" t="s">
         <v>339</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E43" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F43" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" t="s">
         <v>404</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" t="s">
         <v>433</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D44" t="s">
         <v>339</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E44" t="s">
         <v>464</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F44" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" t="s">
         <v>407</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" t="s">
         <v>432</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D45" t="s">
         <v>339</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E45" t="s">
         <v>466</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F45" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E46" s="25">
         <v>45001</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F46" s="22" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" t="s">
         <v>271</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" t="s">
         <v>362</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D47" t="s">
         <v>339</v>
       </c>
-      <c r="E46" s="45" t="s">
+      <c r="E47" t="s">
         <v>468</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F47" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" t="s">
         <v>273</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" t="s">
         <v>362</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D48" t="s">
         <v>339</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E48" t="s">
         <v>469</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F48" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" t="s">
         <v>276</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" t="s">
         <v>362</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D49" t="s">
         <v>339</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E49" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F49" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" t="s">
         <v>279</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D50" t="s">
         <v>339</v>
       </c>
-      <c r="E49" s="45" t="s">
+      <c r="E50" t="s">
         <v>467</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F50" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" t="s">
         <v>282</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" t="s">
         <v>362</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D51" t="s">
         <v>339</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E51" s="24">
         <v>45005</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F51" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D52" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E52" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F52" s="22" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" t="s">
         <v>260</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" t="s">
         <v>360</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" t="s">
         <v>339</v>
       </c>
-      <c r="E52" s="62" t="s">
+      <c r="E53" t="s">
         <v>521</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F53" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B54" t="s">
         <v>263</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" t="s">
         <v>360</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D54" t="s">
         <v>339</v>
       </c>
-      <c r="E53" s="62" t="s">
+      <c r="E54" t="s">
         <v>521</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F54" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" t="s">
         <v>266</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" t="s">
         <v>360</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" t="s">
         <v>339</v>
       </c>
-      <c r="E54" s="62" t="s">
+      <c r="E55" t="s">
         <v>522</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F55" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" t="s">
         <v>434</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D56" t="s">
         <v>339</v>
       </c>
-      <c r="E55" s="62" t="s">
+      <c r="E56" t="s">
         <v>521</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F56" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="26">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="20">
         <v>5</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B57" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B58" t="s">
         <v>436</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" t="s">
         <v>332</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D58" t="s">
         <v>339</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E58" t="s">
         <v>460</v>
       </c>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
         <v>5.2</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" t="s">
         <v>437</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" t="s">
         <v>332</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D59" t="s">
         <v>339</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E59" t="s">
         <v>460</v>
       </c>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
         <v>5.3</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B60" t="s">
         <v>438</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" t="s">
         <v>332</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D60" t="s">
         <v>339</v>
       </c>
-      <c r="E59" s="42" t="s">
+      <c r="E60" t="s">
         <v>460</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F60" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="26">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="20">
         <v>6</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B61" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
         <v>6.1</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B62" t="s">
         <v>441</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" t="s">
         <v>356</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D62" t="s">
         <v>339</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E62" t="s">
         <v>454</v>
       </c>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
         <v>6.2</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B63" t="s">
         <v>442</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" t="s">
         <v>332</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D63" t="s">
         <v>339</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E63" t="s">
         <v>454</v>
       </c>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
         <v>6.3</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B64" t="s">
         <v>443</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7" t="s">
+      <c r="D64" t="s">
         <v>445</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="9">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
         <v>6.4</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="11"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6921,2780 +6870,2783 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="L22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="L2" s="83" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="L2" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="53" t="s">
         <v>526</v>
       </c>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="86"/>
-      <c r="V2" s="83" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55"/>
+      <c r="V2" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="W2" s="84" t="s">
+      <c r="W2" s="53" t="s">
         <v>549</v>
       </c>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="86"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="90" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="88" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="M3" s="88" t="s">
+      <c r="M3" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="56" t="s">
         <v>477</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92" t="s">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="49" t="s">
         <v>527</v>
       </c>
-      <c r="T3" s="89" t="s">
+      <c r="T3" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="V3" s="87" t="s">
+      <c r="V3" s="48" t="s">
         <v>550</v>
       </c>
-      <c r="W3" s="88" t="s">
+      <c r="W3" s="49" t="s">
         <v>551</v>
       </c>
-      <c r="X3" s="90" t="s">
+      <c r="X3" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="90" t="s">
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="58" t="s">
         <v>553</v>
       </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="88" t="s">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="49" t="s">
         <v>554</v>
       </c>
-      <c r="AC3" s="88" t="s">
+      <c r="AC3" s="49" t="s">
         <v>555</v>
       </c>
-      <c r="AD3" s="89" t="s">
+      <c r="AD3" s="50" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="56" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="30" t="s">
         <v>485</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="L4" s="54" t="s">
+      <c r="J4" s="27"/>
+      <c r="L4" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="56" t="s">
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="S4" s="56" t="s">
+      <c r="S4" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="V4" s="54" t="s">
+      <c r="T4" s="27"/>
+      <c r="V4" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="X4" s="68" t="s">
+      <c r="X4" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="56" t="s">
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AC4" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="AD4" s="53"/>
+      <c r="AD4" s="27"/>
     </row>
     <row r="5" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="64" t="s">
         <v>489</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="57" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="53"/>
-      <c r="L5" s="54" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="27"/>
+      <c r="L5" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="66" t="s">
         <v>507</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="93" t="s">
+      <c r="O5" s="67"/>
+      <c r="P5" s="66" t="s">
         <v>533</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="57" t="s">
+      <c r="Q5" s="67"/>
+      <c r="R5" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="S5" s="55"/>
-      <c r="T5" s="53"/>
-      <c r="V5" s="58" t="s">
+      <c r="S5" s="29"/>
+      <c r="T5" s="27"/>
+      <c r="V5" s="32" t="s">
         <v>562</v>
       </c>
-      <c r="W5" s="59" t="s">
+      <c r="W5" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="X5" s="71" t="s">
+      <c r="X5" s="60" t="s">
         <v>565</v>
       </c>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="60" t="s">
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="34" t="s">
         <v>560</v>
       </c>
-      <c r="AC5" s="73" t="s">
+      <c r="AC5" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="AD5" s="61"/>
+      <c r="AD5" s="35"/>
     </row>
     <row r="6" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="57" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="53" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="N6" s="93" t="s">
+      <c r="N6" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="O6" s="94"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="57" t="s">
+      <c r="O6" s="67"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="S6" s="55"/>
-      <c r="T6" s="53"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="27"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="66" t="s">
+      <c r="E7" s="65"/>
+      <c r="F7" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="57">
+      <c r="G7" s="52"/>
+      <c r="H7" s="31">
         <v>1</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="53"/>
-      <c r="L7" s="54" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="27"/>
+      <c r="L7" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="N7" s="93" t="s">
+      <c r="N7" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="O7" s="94"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="57" t="s">
+      <c r="O7" s="67"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="S7" s="55"/>
-      <c r="T7" s="53"/>
-      <c r="V7" s="83" t="s">
+      <c r="S7" s="29"/>
+      <c r="T7" s="27"/>
+      <c r="V7" s="47" t="s">
         <v>548</v>
       </c>
-      <c r="W7" s="84" t="s">
+      <c r="W7" s="53" t="s">
         <v>567</v>
       </c>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="86"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="55"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="66" t="s">
+      <c r="E8" s="65"/>
+      <c r="F8" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="57">
+      <c r="G8" s="52"/>
+      <c r="H8" s="31">
         <v>0</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="53"/>
-      <c r="L8" s="54" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="27"/>
+      <c r="L8" s="28" t="s">
         <v>514</v>
       </c>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="N8" s="93" t="s">
+      <c r="N8" s="66" t="s">
         <v>516</v>
       </c>
-      <c r="O8" s="94"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="57" t="s">
+      <c r="O8" s="67"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="S8" s="55"/>
-      <c r="T8" s="53"/>
-      <c r="V8" s="87" t="s">
+      <c r="S8" s="29"/>
+      <c r="T8" s="27"/>
+      <c r="V8" s="48" t="s">
         <v>550</v>
       </c>
-      <c r="W8" s="88" t="s">
+      <c r="W8" s="49" t="s">
         <v>551</v>
       </c>
-      <c r="X8" s="90" t="s">
+      <c r="X8" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="90" t="s">
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="58" t="s">
         <v>553</v>
       </c>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="88" t="s">
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="49" t="s">
         <v>554</v>
       </c>
-      <c r="AC8" s="88" t="s">
+      <c r="AC8" s="49" t="s">
         <v>555</v>
       </c>
-      <c r="AD8" s="89" t="s">
+      <c r="AD8" s="50" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="57" t="s">
+      <c r="E9" s="65"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="53"/>
-      <c r="L9" s="54" t="s">
+      <c r="I9" s="29"/>
+      <c r="J9" s="27"/>
+      <c r="L9" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="N9" s="95" t="s">
+      <c r="N9" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="57">
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="31">
         <v>0</v>
       </c>
-      <c r="S9" s="55"/>
-      <c r="T9" s="53"/>
-      <c r="V9" s="54" t="s">
+      <c r="S9" s="29"/>
+      <c r="T9" s="27"/>
+      <c r="V9" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="W9" s="55" t="s">
+      <c r="W9" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="X9" s="68" t="s">
+      <c r="X9" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="56" t="s">
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="AC9" s="56" t="s">
+      <c r="AC9" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="AD9" s="53"/>
+      <c r="AD9" s="27"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="28" t="s">
         <v>505</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="29" t="s">
         <v>506</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="57" t="s">
+      <c r="E10" s="65"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="53"/>
-      <c r="L10" s="54" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="27"/>
+      <c r="L10" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="M10" s="55" t="s">
+      <c r="M10" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="N10" s="95" t="s">
+      <c r="N10" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="O10" s="95"/>
-      <c r="P10" s="93" t="s">
+      <c r="O10" s="57"/>
+      <c r="P10" s="66" t="s">
         <v>543</v>
       </c>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="57" t="s">
+      <c r="Q10" s="67"/>
+      <c r="R10" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="53"/>
-      <c r="V10" s="54" t="s">
+      <c r="S10" s="29"/>
+      <c r="T10" s="27"/>
+      <c r="V10" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="W10" s="55" t="s">
+      <c r="W10" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="X10" s="68" t="s">
+      <c r="X10" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="57" t="s">
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AC10" s="56" t="s">
+      <c r="AC10" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="AD10" s="53"/>
+      <c r="AD10" s="27"/>
     </row>
     <row r="11" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="28" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="29" t="s">
         <v>506</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="64" t="s">
         <v>509</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="57" t="s">
+      <c r="E11" s="65"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="53"/>
-      <c r="L11" s="54" t="s">
+      <c r="I11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="L11" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="M11" s="55" t="s">
+      <c r="M11" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="N11" s="93" t="s">
+      <c r="N11" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="O11" s="94"/>
-      <c r="P11" s="93" t="s">
+      <c r="O11" s="67"/>
+      <c r="P11" s="66" t="s">
         <v>543</v>
       </c>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="57" t="s">
+      <c r="Q11" s="67"/>
+      <c r="R11" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="S11" s="55"/>
-      <c r="T11" s="53"/>
-      <c r="V11" s="58" t="s">
+      <c r="S11" s="29"/>
+      <c r="T11" s="27"/>
+      <c r="V11" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="W11" s="59" t="s">
+      <c r="W11" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="X11" s="71" t="s">
+      <c r="X11" s="60" t="s">
         <v>565</v>
       </c>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="60" t="s">
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="34" t="s">
         <v>560</v>
       </c>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="75"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="39"/>
     </row>
     <row r="12" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="29" t="s">
         <v>506</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="57" t="s">
+      <c r="E12" s="65"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="31" t="s">
         <v>511</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="53"/>
-      <c r="L12" s="58" t="s">
+      <c r="I12" s="29"/>
+      <c r="J12" s="27"/>
+      <c r="L12" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="72" t="s">
         <v>499</v>
       </c>
-      <c r="O12" s="96"/>
-      <c r="P12" s="97" t="s">
+      <c r="O12" s="72"/>
+      <c r="P12" s="68" t="s">
         <v>543</v>
       </c>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="60" t="s">
+      <c r="Q12" s="69"/>
+      <c r="R12" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="S12" s="59"/>
-      <c r="T12" s="61"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="74"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="35"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="57" t="s">
+      <c r="E13" s="65"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="53"/>
-      <c r="V13" s="83" t="s">
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="V13" s="47" t="s">
         <v>548</v>
       </c>
-      <c r="W13" s="84" t="s">
+      <c r="W13" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="86"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="55"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="28" t="s">
         <v>514</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="57" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="53"/>
-      <c r="L14" s="83" t="s">
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="L14" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="M14" s="84" t="s">
+      <c r="M14" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="86"/>
-      <c r="V14" s="87" t="s">
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="55"/>
+      <c r="V14" s="48" t="s">
         <v>550</v>
       </c>
-      <c r="W14" s="88" t="s">
+      <c r="W14" s="49" t="s">
         <v>551</v>
       </c>
-      <c r="X14" s="90" t="s">
+      <c r="X14" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="90" t="s">
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="58" t="s">
         <v>553</v>
       </c>
-      <c r="AA14" s="91"/>
-      <c r="AB14" s="88" t="s">
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="49" t="s">
         <v>554</v>
       </c>
-      <c r="AC14" s="88" t="s">
+      <c r="AC14" s="49" t="s">
         <v>555</v>
       </c>
-      <c r="AD14" s="89" t="s">
+      <c r="AD14" s="50" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="28" t="s">
         <v>517</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="29" t="s">
         <v>518</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="57" t="s">
+      <c r="E15" s="65"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="31" t="s">
         <v>511</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="53"/>
-      <c r="L15" s="87" t="s">
+      <c r="I15" s="29"/>
+      <c r="J15" s="27"/>
+      <c r="L15" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="M15" s="88" t="s">
+      <c r="M15" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="N15" s="90" t="s">
+      <c r="N15" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="O15" s="91"/>
-      <c r="P15" s="90" t="s">
+      <c r="O15" s="59"/>
+      <c r="P15" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="88" t="s">
+      <c r="Q15" s="59"/>
+      <c r="R15" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="S15" s="88" t="s">
+      <c r="S15" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="T15" s="89" t="s">
+      <c r="T15" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="V15" s="76" t="s">
+      <c r="V15" s="40" t="s">
         <v>571</v>
       </c>
-      <c r="W15" s="77" t="s">
+      <c r="W15" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="X15" s="93" t="s">
+      <c r="X15" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="56" t="s">
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="AC15" s="56" t="s">
+      <c r="AC15" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="AD15" s="53"/>
+      <c r="AD15" s="27"/>
     </row>
     <row r="16" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="60" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="61"/>
-      <c r="L16" s="54" t="s">
+      <c r="I16" s="33"/>
+      <c r="J16" s="35"/>
+      <c r="L16" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="M16" s="55" t="s">
+      <c r="M16" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="N16" s="68" t="s">
+      <c r="N16" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="O16" s="69"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="56" t="s">
+      <c r="O16" s="65"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="S16" s="56" t="s">
+      <c r="S16" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="T16" s="53"/>
-      <c r="V16" s="76" t="s">
+      <c r="T16" s="27"/>
+      <c r="V16" s="40" t="s">
         <v>572</v>
       </c>
-      <c r="W16" s="77" t="s">
+      <c r="W16" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="X16" s="93" t="s">
+      <c r="X16" s="66" t="s">
         <v>573</v>
       </c>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="56" t="s">
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="53"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="27"/>
     </row>
     <row r="17" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L17" s="54" t="s">
+      <c r="L17" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="M17" s="55" t="s">
+      <c r="M17" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="N17" s="68" t="s">
+      <c r="N17" s="64" t="s">
         <v>603</v>
       </c>
-      <c r="O17" s="69"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="57" t="s">
+      <c r="O17" s="65"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="S17" s="56" t="s">
+      <c r="S17" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="T17" s="53"/>
-      <c r="V17" s="76" t="s">
+      <c r="T17" s="27"/>
+      <c r="V17" s="40" t="s">
         <v>575</v>
       </c>
-      <c r="W17" s="77" t="s">
+      <c r="W17" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="X17" s="93" t="s">
+      <c r="X17" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="57" t="s">
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AC17" s="56" t="s">
+      <c r="AC17" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="AD17" s="53"/>
+      <c r="AD17" s="27"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="53" t="s">
         <v>609</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="86"/>
-      <c r="L18" s="54" t="s">
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="L18" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="M18" s="55" t="s">
+      <c r="M18" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="N18" s="68" t="s">
+      <c r="N18" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="O18" s="69"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="57" t="s">
+      <c r="O18" s="65"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="S18" s="55"/>
-      <c r="T18" s="53"/>
-      <c r="V18" s="76" t="s">
+      <c r="S18" s="29"/>
+      <c r="T18" s="27"/>
+      <c r="V18" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="W18" s="77" t="s">
+      <c r="W18" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="X18" s="93" t="s">
+      <c r="X18" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="57">
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="31">
         <v>1</v>
       </c>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="53"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="27"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="48" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="49" t="s">
         <v>551</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="90" t="s">
+      <c r="E19" s="59"/>
+      <c r="F19" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="88" t="s">
+      <c r="G19" s="59"/>
+      <c r="H19" s="49" t="s">
         <v>610</v>
       </c>
-      <c r="I19" s="88" t="s">
+      <c r="I19" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="J19" s="89" t="s">
+      <c r="J19" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="L19" s="54" t="s">
+      <c r="L19" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="M19" s="55" t="s">
+      <c r="M19" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="N19" s="68" t="s">
+      <c r="N19" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="O19" s="69"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="57" t="s">
+      <c r="O19" s="65"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="S19" s="55"/>
-      <c r="T19" s="53"/>
-      <c r="V19" s="76" t="s">
+      <c r="S19" s="29"/>
+      <c r="T19" s="27"/>
+      <c r="V19" s="40" t="s">
         <v>592</v>
       </c>
-      <c r="W19" s="77" t="s">
+      <c r="W19" s="41" t="s">
         <v>593</v>
       </c>
-      <c r="X19" s="93" t="s">
+      <c r="X19" s="66" t="s">
         <v>573</v>
       </c>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="57" t="s">
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="53"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="27"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="56" t="s">
+      <c r="E20" s="67"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I20" s="56" t="s">
+      <c r="I20" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="J20" s="53"/>
-      <c r="L20" s="54" t="s">
+      <c r="J20" s="27"/>
+      <c r="L20" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="M20" s="55" t="s">
+      <c r="M20" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="N20" s="68" t="s">
+      <c r="N20" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="O20" s="69"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="57">
+      <c r="O20" s="65"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="31">
         <v>0</v>
       </c>
-      <c r="S20" s="55"/>
-      <c r="T20" s="53"/>
-      <c r="V20" s="76" t="s">
+      <c r="S20" s="29"/>
+      <c r="T20" s="27"/>
+      <c r="V20" s="40" t="s">
         <v>594</v>
       </c>
-      <c r="W20" s="77" t="s">
+      <c r="W20" s="41" t="s">
         <v>595</v>
       </c>
-      <c r="X20" s="93" t="s">
+      <c r="X20" s="66" t="s">
         <v>573</v>
       </c>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="57" t="s">
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="53"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="27"/>
     </row>
     <row r="21" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="93" t="s">
+      <c r="E21" s="67"/>
+      <c r="F21" s="66" t="s">
         <v>612</v>
       </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="57" t="s">
+      <c r="G21" s="67"/>
+      <c r="H21" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="53"/>
-      <c r="L21" s="54" t="s">
+      <c r="I21" s="30"/>
+      <c r="J21" s="27"/>
+      <c r="L21" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="M21" s="55" t="s">
+      <c r="M21" s="29" t="s">
         <v>605</v>
       </c>
-      <c r="N21" s="68" t="s">
+      <c r="N21" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="O21" s="69"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="57">
+      <c r="O21" s="65"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="31">
         <v>0</v>
       </c>
-      <c r="S21" s="55"/>
-      <c r="T21" s="53"/>
-      <c r="V21" s="79" t="s">
+      <c r="S21" s="29"/>
+      <c r="T21" s="27"/>
+      <c r="V21" s="43" t="s">
         <v>597</v>
       </c>
-      <c r="W21" s="80" t="s">
+      <c r="W21" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="X21" s="97" t="s">
+      <c r="X21" s="68" t="s">
         <v>599</v>
       </c>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="60" t="s">
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="61"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="35"/>
     </row>
     <row r="22" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="66" t="s">
         <v>613</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="93" t="s">
+      <c r="E22" s="67"/>
+      <c r="F22" s="66" t="s">
         <v>614</v>
       </c>
-      <c r="G22" s="94"/>
-      <c r="H22" s="57" t="s">
+      <c r="G22" s="67"/>
+      <c r="H22" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="I22" s="55"/>
-      <c r="J22" s="53"/>
-      <c r="L22" s="54" t="s">
+      <c r="I22" s="29"/>
+      <c r="J22" s="27"/>
+      <c r="L22" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="M22" s="55" t="s">
+      <c r="M22" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="N22" s="68" t="s">
+      <c r="N22" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="O22" s="69"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="57">
+      <c r="O22" s="65"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="31">
         <v>0</v>
       </c>
-      <c r="S22" s="55"/>
-      <c r="T22" s="53"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="27"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="29" t="s">
         <v>616</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="57">
+      <c r="E23" s="67"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="31">
         <v>0</v>
       </c>
-      <c r="I23" s="55"/>
-      <c r="J23" s="53"/>
-      <c r="L23" s="54" t="s">
+      <c r="I23" s="29"/>
+      <c r="J23" s="27"/>
+      <c r="L23" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="M23" s="55" t="s">
+      <c r="M23" s="29" t="s">
         <v>607</v>
       </c>
-      <c r="N23" s="68" t="s">
+      <c r="N23" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="O23" s="69"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="57" t="s">
+      <c r="O23" s="65"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="S23" s="55"/>
-      <c r="T23" s="53"/>
-      <c r="V23" s="83" t="s">
+      <c r="S23" s="29"/>
+      <c r="T23" s="27"/>
+      <c r="V23" s="47" t="s">
         <v>548</v>
       </c>
-      <c r="W23" s="84" t="s">
+      <c r="W23" s="53" t="s">
         <v>729</v>
       </c>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="86"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="55"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="28" t="s">
         <v>617</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="D24" s="93" t="s">
+      <c r="D24" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="57">
+      <c r="E24" s="67"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="31">
         <v>0</v>
       </c>
-      <c r="I24" s="55"/>
-      <c r="J24" s="53"/>
-      <c r="L24" s="76" t="s">
+      <c r="I24" s="29"/>
+      <c r="J24" s="27"/>
+      <c r="L24" s="40" t="s">
         <v>592</v>
       </c>
-      <c r="M24" s="77" t="s">
+      <c r="M24" s="41" t="s">
         <v>593</v>
       </c>
-      <c r="N24" s="68" t="s">
+      <c r="N24" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="O24" s="69"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="57" t="s">
+      <c r="O24" s="65"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="S24" s="52"/>
-      <c r="T24" s="53"/>
-      <c r="V24" s="87" t="s">
+      <c r="S24" s="26"/>
+      <c r="T24" s="27"/>
+      <c r="V24" s="48" t="s">
         <v>550</v>
       </c>
-      <c r="W24" s="88" t="s">
+      <c r="W24" s="49" t="s">
         <v>551</v>
       </c>
-      <c r="X24" s="90" t="s">
+      <c r="X24" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="90" t="s">
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="58" t="s">
         <v>553</v>
       </c>
-      <c r="AA24" s="91"/>
-      <c r="AB24" s="88" t="s">
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="49" t="s">
         <v>554</v>
       </c>
-      <c r="AC24" s="88" t="s">
+      <c r="AC24" s="49" t="s">
         <v>555</v>
       </c>
-      <c r="AD24" s="89" t="s">
+      <c r="AD24" s="50" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="57">
+      <c r="E25" s="67"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="31">
         <v>0</v>
       </c>
-      <c r="I25" s="55"/>
-      <c r="J25" s="53"/>
-      <c r="L25" s="76" t="s">
+      <c r="I25" s="29"/>
+      <c r="J25" s="27"/>
+      <c r="L25" s="40" t="s">
         <v>594</v>
       </c>
-      <c r="M25" s="77" t="s">
+      <c r="M25" s="41" t="s">
         <v>595</v>
       </c>
-      <c r="N25" s="68" t="s">
+      <c r="N25" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="O25" s="69"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="57" t="s">
+      <c r="O25" s="65"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="S25" s="56"/>
-      <c r="T25" s="53"/>
-      <c r="V25" s="54" t="s">
+      <c r="S25" s="30"/>
+      <c r="T25" s="27"/>
+      <c r="V25" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="W25" s="55" t="s">
+      <c r="W25" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="X25" s="68" t="s">
+      <c r="X25" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="56" t="s">
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="AC25" s="56" t="s">
+      <c r="AC25" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="AD25" s="53"/>
+      <c r="AD25" s="27"/>
     </row>
     <row r="26" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="28" t="s">
         <v>621</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="57">
+      <c r="E26" s="67"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="31">
         <v>0</v>
       </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="53"/>
-      <c r="L26" s="58" t="s">
+      <c r="I26" s="29"/>
+      <c r="J26" s="27"/>
+      <c r="L26" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="M26" s="59" t="s">
+      <c r="M26" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="N26" s="71" t="s">
+      <c r="N26" s="60" t="s">
         <v>516</v>
       </c>
-      <c r="O26" s="72"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="60" t="s">
+      <c r="O26" s="61"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="S26" s="59"/>
-      <c r="T26" s="61"/>
-      <c r="V26" s="54" t="s">
+      <c r="S26" s="33"/>
+      <c r="T26" s="35"/>
+      <c r="V26" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="W26" s="55" t="s">
+      <c r="W26" s="29" t="s">
         <v>734</v>
       </c>
-      <c r="X26" s="68" t="s">
+      <c r="X26" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="57" t="s">
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="53"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="27"/>
     </row>
     <row r="27" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="57">
+      <c r="E27" s="67"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="31">
         <v>0</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="53"/>
-      <c r="V27" s="54" t="s">
+      <c r="I27" s="29"/>
+      <c r="J27" s="27"/>
+      <c r="V27" s="28" t="s">
         <v>730</v>
       </c>
-      <c r="W27" s="55" t="s">
+      <c r="W27" s="29" t="s">
         <v>733</v>
       </c>
-      <c r="X27" s="68" t="s">
+      <c r="X27" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="53"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="27"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="29" t="s">
         <v>626</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="E28" s="94"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="57">
+      <c r="E28" s="67"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="31">
         <v>0</v>
       </c>
-      <c r="I28" s="55"/>
-      <c r="J28" s="53"/>
-      <c r="L28" s="83" t="s">
+      <c r="I28" s="29"/>
+      <c r="J28" s="27"/>
+      <c r="L28" s="47" t="s">
         <v>548</v>
       </c>
-      <c r="M28" s="84" t="s">
+      <c r="M28" s="53" t="s">
         <v>657</v>
       </c>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="86"/>
-      <c r="V28" s="54" t="s">
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="55"/>
+      <c r="V28" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="W28" s="55" t="s">
+      <c r="W28" s="29" t="s">
         <v>735</v>
       </c>
-      <c r="X28" s="68" t="s">
+      <c r="X28" s="64" t="s">
         <v>732</v>
       </c>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="53"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="27"/>
     </row>
     <row r="29" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="29" t="s">
         <v>607</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="57">
+      <c r="E29" s="67"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="31">
         <v>0</v>
       </c>
-      <c r="I29" s="55"/>
-      <c r="J29" s="53"/>
-      <c r="L29" s="87" t="s">
+      <c r="I29" s="29"/>
+      <c r="J29" s="27"/>
+      <c r="L29" s="48" t="s">
         <v>658</v>
       </c>
-      <c r="M29" s="88" t="s">
+      <c r="M29" s="49" t="s">
         <v>659</v>
       </c>
-      <c r="N29" s="90" t="s">
+      <c r="N29" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="O29" s="91"/>
-      <c r="P29" s="90" t="s">
+      <c r="O29" s="59"/>
+      <c r="P29" s="58" t="s">
         <v>660</v>
       </c>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="88" t="s">
+      <c r="Q29" s="59"/>
+      <c r="R29" s="49" t="s">
         <v>554</v>
       </c>
-      <c r="S29" s="88" t="s">
+      <c r="S29" s="49" t="s">
         <v>555</v>
       </c>
-      <c r="T29" s="89" t="s">
+      <c r="T29" s="50" t="s">
         <v>661</v>
       </c>
-      <c r="V29" s="58" t="s">
+      <c r="V29" s="32" t="s">
         <v>681</v>
       </c>
-      <c r="W29" s="59" t="s">
+      <c r="W29" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="X29" s="71" t="s">
+      <c r="X29" s="60" t="s">
         <v>499</v>
       </c>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="75"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="39"/>
     </row>
     <row r="30" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="66" t="s">
         <v>629</v>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="56" t="s">
+      <c r="E30" s="67"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I30" s="55"/>
-      <c r="J30" s="53"/>
-      <c r="L30" s="54" t="s">
+      <c r="I30" s="29"/>
+      <c r="J30" s="27"/>
+      <c r="L30" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="M30" s="55" t="s">
+      <c r="M30" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="N30" s="93" t="s">
+      <c r="N30" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="O30" s="94"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="56" t="s">
+      <c r="O30" s="67"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="S30" s="56" t="s">
+      <c r="S30" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="T30" s="53"/>
+      <c r="T30" s="27"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="66" t="s">
         <v>631</v>
       </c>
-      <c r="E31" s="94"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="56" t="s">
+      <c r="E31" s="67"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I31" s="55"/>
-      <c r="J31" s="53"/>
-      <c r="L31" s="54" t="s">
+      <c r="I31" s="29"/>
+      <c r="J31" s="27"/>
+      <c r="L31" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="M31" s="55" t="s">
+      <c r="M31" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="N31" s="93" t="s">
+      <c r="N31" s="66" t="s">
         <v>665</v>
       </c>
-      <c r="O31" s="94"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="57" t="s">
+      <c r="O31" s="67"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="31" t="s">
         <v>666</v>
       </c>
-      <c r="S31" s="55"/>
-      <c r="T31" s="53"/>
-      <c r="V31" s="83" t="s">
+      <c r="S31" s="29"/>
+      <c r="T31" s="27"/>
+      <c r="V31" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="W31" s="84" t="s">
+      <c r="W31" s="53" t="s">
         <v>738</v>
       </c>
-      <c r="X31" s="85"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="85"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="85"/>
-      <c r="AD31" s="86"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="55"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="56" t="s">
+      <c r="E32" s="67"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="53"/>
-      <c r="L32" s="54" t="s">
+      <c r="I32" s="29"/>
+      <c r="J32" s="27"/>
+      <c r="L32" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="M32" s="55" t="s">
+      <c r="M32" s="29" t="s">
         <v>668</v>
       </c>
-      <c r="N32" s="93" t="s">
+      <c r="N32" s="66" t="s">
         <v>665</v>
       </c>
-      <c r="O32" s="94"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="57" t="s">
+      <c r="O32" s="67"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="31" t="s">
         <v>663</v>
       </c>
-      <c r="S32" s="55"/>
-      <c r="T32" s="53"/>
-      <c r="V32" s="87" t="s">
+      <c r="S32" s="29"/>
+      <c r="T32" s="27"/>
+      <c r="V32" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="W32" s="88" t="s">
+      <c r="W32" s="49" t="s">
         <v>740</v>
       </c>
-      <c r="X32" s="90" t="s">
+      <c r="X32" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="90" t="s">
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AA32" s="91"/>
-      <c r="AB32" s="88" t="s">
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="AC32" s="88" t="s">
+      <c r="AC32" s="49" t="s">
         <v>741</v>
       </c>
-      <c r="AD32" s="89" t="s">
+      <c r="AD32" s="50" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="D33" s="93" t="s">
+      <c r="D33" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="E33" s="94"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="56" t="s">
+      <c r="E33" s="67"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I33" s="55"/>
-      <c r="J33" s="81"/>
-      <c r="L33" s="54" t="s">
+      <c r="I33" s="29"/>
+      <c r="J33" s="45"/>
+      <c r="L33" s="28" t="s">
         <v>669</v>
       </c>
-      <c r="M33" s="55" t="s">
+      <c r="M33" s="29" t="s">
         <v>670</v>
       </c>
-      <c r="N33" s="93" t="s">
+      <c r="N33" s="66" t="s">
         <v>565</v>
       </c>
-      <c r="O33" s="94"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="57" t="s">
+      <c r="O33" s="67"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="S33" s="56" t="s">
+      <c r="S33" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="T33" s="53"/>
-      <c r="V33" s="54" t="s">
+      <c r="T33" s="27"/>
+      <c r="V33" s="28" t="s">
         <v>742</v>
       </c>
-      <c r="W33" s="55" t="s">
+      <c r="W33" s="29" t="s">
         <v>743</v>
       </c>
-      <c r="X33" s="68" t="s">
+      <c r="X33" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="56" t="s">
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="AC33" s="56" t="s">
+      <c r="AC33" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="AD33" s="53"/>
+      <c r="AD33" s="27"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="29" t="s">
         <v>637</v>
       </c>
-      <c r="D34" s="93" t="s">
+      <c r="D34" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="E34" s="94"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="56" t="s">
+      <c r="E34" s="67"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I34" s="55"/>
-      <c r="J34" s="81"/>
-      <c r="L34" s="54" t="s">
+      <c r="I34" s="29"/>
+      <c r="J34" s="45"/>
+      <c r="L34" s="28" t="s">
         <v>671</v>
       </c>
-      <c r="M34" s="55" t="s">
+      <c r="M34" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="N34" s="93" t="s">
+      <c r="N34" s="66" t="s">
         <v>565</v>
       </c>
-      <c r="O34" s="94"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="57" t="s">
+      <c r="O34" s="67"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="S34" s="56" t="s">
+      <c r="S34" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="T34" s="53"/>
-      <c r="V34" s="54" t="s">
+      <c r="T34" s="27"/>
+      <c r="V34" s="28" t="s">
         <v>745</v>
       </c>
-      <c r="W34" s="55" t="s">
+      <c r="W34" s="29" t="s">
         <v>746</v>
       </c>
-      <c r="X34" s="93" t="s">
+      <c r="X34" s="66" t="s">
         <v>747</v>
       </c>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="57" t="s">
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AC34" s="56" t="s">
+      <c r="AC34" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="AD34" s="53"/>
+      <c r="AD34" s="27"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="29" t="s">
         <v>639</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="56" t="s">
+      <c r="E35" s="67"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I35" s="55"/>
-      <c r="J35" s="81"/>
-      <c r="L35" s="54" t="s">
+      <c r="I35" s="29"/>
+      <c r="J35" s="45"/>
+      <c r="L35" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="M35" s="55" t="s">
+      <c r="M35" s="29" t="s">
         <v>673</v>
       </c>
-      <c r="N35" s="93" t="s">
+      <c r="N35" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="O35" s="94"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="57">
+      <c r="O35" s="67"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="31">
         <v>0</v>
       </c>
-      <c r="S35" s="55"/>
-      <c r="T35" s="53"/>
-      <c r="V35" s="54" t="s">
+      <c r="S35" s="29"/>
+      <c r="T35" s="27"/>
+      <c r="V35" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="W35" s="55" t="s">
+      <c r="W35" s="29" t="s">
         <v>748</v>
       </c>
-      <c r="X35" s="93" t="s">
+      <c r="X35" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="55" t="s">
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="29" t="s">
         <v>749</v>
       </c>
-      <c r="AA35" s="70"/>
-      <c r="AB35" s="57" t="s">
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="53"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="27"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="D36" s="93" t="s">
+      <c r="D36" s="66" t="s">
         <v>629</v>
       </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="56" t="s">
+      <c r="E36" s="67"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I36" s="55"/>
-      <c r="J36" s="81"/>
-      <c r="L36" s="54" t="s">
+      <c r="I36" s="29"/>
+      <c r="J36" s="45"/>
+      <c r="L36" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="M36" s="55" t="s">
+      <c r="M36" s="29" t="s">
         <v>674</v>
       </c>
-      <c r="N36" s="93" t="s">
+      <c r="N36" s="66" t="s">
         <v>675</v>
       </c>
-      <c r="O36" s="94"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="57">
+      <c r="O36" s="67"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="31">
         <v>0</v>
       </c>
-      <c r="S36" s="55"/>
-      <c r="T36" s="53"/>
-      <c r="V36" s="54" t="s">
+      <c r="S36" s="29"/>
+      <c r="T36" s="27"/>
+      <c r="V36" s="28" t="s">
         <v>750</v>
       </c>
-      <c r="W36" s="55" t="s">
+      <c r="W36" s="29" t="s">
         <v>751</v>
       </c>
-      <c r="X36" s="93" t="s">
+      <c r="X36" s="66" t="s">
         <v>752</v>
       </c>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="57" t="s">
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="53"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="27"/>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="D37" s="93" t="s">
+      <c r="D37" s="66" t="s">
         <v>631</v>
       </c>
-      <c r="E37" s="94"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="56" t="s">
+      <c r="E37" s="67"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I37" s="70"/>
-      <c r="J37" s="78"/>
-      <c r="L37" s="54" t="s">
+      <c r="I37" s="36"/>
+      <c r="J37" s="42"/>
+      <c r="L37" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="M37" s="55" t="s">
+      <c r="M37" s="29" t="s">
         <v>676</v>
       </c>
-      <c r="N37" s="93" t="s">
+      <c r="N37" s="66" t="s">
         <v>675</v>
       </c>
-      <c r="O37" s="94"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="57">
+      <c r="O37" s="67"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="31">
         <v>0</v>
       </c>
-      <c r="S37" s="55"/>
-      <c r="T37" s="53"/>
-      <c r="V37" s="54" t="s">
+      <c r="S37" s="29"/>
+      <c r="T37" s="27"/>
+      <c r="V37" s="28" t="s">
         <v>753</v>
       </c>
-      <c r="W37" s="55" t="s">
+      <c r="W37" s="29" t="s">
         <v>754</v>
       </c>
-      <c r="X37" s="93" t="s">
+      <c r="X37" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="Y37" s="94"/>
-      <c r="Z37" s="68" t="s">
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="64" t="s">
         <v>755</v>
       </c>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="57">
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="31">
         <v>0</v>
       </c>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="53"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="27"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="D38" s="93" t="s">
+      <c r="D38" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="E38" s="94"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="56" t="s">
+      <c r="E38" s="67"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I38" s="70"/>
-      <c r="J38" s="78"/>
-      <c r="L38" s="54" t="s">
+      <c r="I38" s="36"/>
+      <c r="J38" s="42"/>
+      <c r="L38" s="28" t="s">
         <v>677</v>
       </c>
-      <c r="M38" s="55" t="s">
+      <c r="M38" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="N38" s="93" t="s">
+      <c r="N38" s="66" t="s">
         <v>675</v>
       </c>
-      <c r="O38" s="94"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="57">
+      <c r="O38" s="67"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="31">
         <v>0</v>
       </c>
-      <c r="S38" s="55"/>
-      <c r="T38" s="53"/>
-      <c r="V38" s="54" t="s">
+      <c r="S38" s="29"/>
+      <c r="T38" s="27"/>
+      <c r="V38" s="28" t="s">
         <v>756</v>
       </c>
-      <c r="W38" s="55" t="s">
+      <c r="W38" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="X38" s="93" t="s">
+      <c r="X38" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="Y38" s="94"/>
-      <c r="Z38" s="68" t="s">
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="64" t="s">
         <v>757</v>
       </c>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="57" t="s">
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="53"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="27"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="28" t="s">
         <v>645</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="D39" s="93" t="s">
+      <c r="D39" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="E39" s="94"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="56" t="s">
+      <c r="E39" s="67"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I39" s="70"/>
-      <c r="J39" s="78"/>
-      <c r="L39" s="54" t="s">
+      <c r="I39" s="36"/>
+      <c r="J39" s="42"/>
+      <c r="L39" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="29" t="s">
         <v>680</v>
       </c>
-      <c r="N39" s="93" t="s">
+      <c r="N39" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="O39" s="94"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="67"/>
-      <c r="R39" s="57">
+      <c r="O39" s="67"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="31">
         <v>0</v>
       </c>
-      <c r="S39" s="55"/>
-      <c r="T39" s="53"/>
-      <c r="V39" s="54" t="s">
+      <c r="S39" s="29"/>
+      <c r="T39" s="27"/>
+      <c r="V39" s="28" t="s">
         <v>519</v>
       </c>
-      <c r="W39" s="55" t="s">
+      <c r="W39" s="29" t="s">
         <v>758</v>
       </c>
-      <c r="X39" s="93" t="s">
+      <c r="X39" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="Y39" s="94"/>
-      <c r="Z39" s="55" t="s">
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="29" t="s">
         <v>759</v>
       </c>
-      <c r="AA39" s="70"/>
-      <c r="AB39" s="57" t="s">
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="53"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="27"/>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="D40" s="93" t="s">
+      <c r="D40" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="56" t="s">
+      <c r="E40" s="67"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I40" s="70"/>
-      <c r="J40" s="78"/>
-      <c r="L40" s="54" t="s">
+      <c r="I40" s="36"/>
+      <c r="J40" s="42"/>
+      <c r="L40" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="M40" s="55" t="s">
+      <c r="M40" s="29" t="s">
         <v>683</v>
       </c>
-      <c r="N40" s="93" t="s">
+      <c r="N40" s="66" t="s">
         <v>675</v>
       </c>
-      <c r="O40" s="94"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="57">
+      <c r="O40" s="67"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="31">
         <v>0</v>
       </c>
-      <c r="S40" s="55"/>
-      <c r="T40" s="53"/>
-      <c r="V40" s="54" t="s">
+      <c r="S40" s="29"/>
+      <c r="T40" s="27"/>
+      <c r="V40" s="28" t="s">
         <v>761</v>
       </c>
-      <c r="W40" s="55" t="s">
+      <c r="W40" s="29" t="s">
         <v>762</v>
       </c>
-      <c r="X40" s="93" t="s">
+      <c r="X40" s="66" t="s">
         <v>507</v>
       </c>
-      <c r="Y40" s="94"/>
-      <c r="Z40" s="55" t="s">
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="29" t="s">
         <v>763</v>
       </c>
-      <c r="AA40" s="70"/>
-      <c r="AB40" s="57" t="s">
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="AC40" s="55"/>
-      <c r="AD40" s="53"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="27"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="29" t="s">
         <v>648</v>
       </c>
-      <c r="D41" s="93" t="s">
+      <c r="D41" s="66" t="s">
         <v>649</v>
       </c>
-      <c r="E41" s="94"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="56" t="s">
+      <c r="E41" s="67"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I41" s="70"/>
-      <c r="J41" s="78"/>
-      <c r="L41" s="54" t="s">
+      <c r="I41" s="36"/>
+      <c r="J41" s="42"/>
+      <c r="L41" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="M41" s="55" t="s">
+      <c r="M41" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="N41" s="93" t="s">
+      <c r="N41" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="O41" s="94"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="57">
+      <c r="O41" s="67"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="31">
         <v>0</v>
       </c>
-      <c r="S41" s="55"/>
-      <c r="T41" s="53"/>
-      <c r="V41" s="54" t="s">
+      <c r="S41" s="29"/>
+      <c r="T41" s="27"/>
+      <c r="V41" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="W41" s="55" t="s">
+      <c r="W41" s="29" t="s">
         <v>764</v>
       </c>
-      <c r="X41" s="93" t="s">
+      <c r="X41" s="66" t="s">
         <v>717</v>
       </c>
-      <c r="Y41" s="94"/>
-      <c r="Z41" s="55" t="s">
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="29" t="s">
         <v>765</v>
       </c>
-      <c r="AA41" s="70"/>
-      <c r="AB41" s="57" t="s">
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="53"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="27"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="28" t="s">
         <v>650</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="29" t="s">
         <v>651</v>
       </c>
-      <c r="D42" s="93" t="s">
+      <c r="D42" s="66" t="s">
         <v>496</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="93" t="s">
+      <c r="E42" s="67"/>
+      <c r="F42" s="66" t="s">
         <v>655</v>
       </c>
-      <c r="G42" s="94"/>
-      <c r="H42" s="56" t="s">
+      <c r="G42" s="67"/>
+      <c r="H42" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I42" s="70"/>
-      <c r="J42" s="78"/>
-      <c r="L42" s="54" t="s">
+      <c r="I42" s="36"/>
+      <c r="J42" s="42"/>
+      <c r="L42" s="28" t="s">
         <v>685</v>
       </c>
-      <c r="M42" s="55" t="s">
+      <c r="M42" s="29" t="s">
         <v>686</v>
       </c>
-      <c r="N42" s="93" t="s">
+      <c r="N42" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="O42" s="94"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="57">
+      <c r="O42" s="67"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="31">
         <v>0</v>
       </c>
-      <c r="S42" s="55"/>
-      <c r="T42" s="81"/>
-      <c r="V42" s="54" t="s">
+      <c r="S42" s="29"/>
+      <c r="T42" s="45"/>
+      <c r="V42" s="28" t="s">
         <v>766</v>
       </c>
-      <c r="W42" s="55" t="s">
+      <c r="W42" s="29" t="s">
         <v>767</v>
       </c>
-      <c r="X42" s="93" t="s">
+      <c r="X42" s="66" t="s">
         <v>573</v>
       </c>
-      <c r="Y42" s="94"/>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="67"/>
-      <c r="AB42" s="57" t="s">
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="31" t="s">
         <v>768</v>
       </c>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="53"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="27"/>
     </row>
     <row r="43" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="28" t="s">
         <v>652</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="29" t="s">
         <v>653</v>
       </c>
-      <c r="D43" s="99" t="s">
+      <c r="D43" s="70" t="s">
         <v>564</v>
       </c>
-      <c r="E43" s="100"/>
-      <c r="F43" s="93" t="s">
+      <c r="E43" s="71"/>
+      <c r="F43" s="66" t="s">
         <v>656</v>
       </c>
-      <c r="G43" s="94"/>
-      <c r="H43" s="57">
+      <c r="G43" s="67"/>
+      <c r="H43" s="31">
         <v>1</v>
       </c>
-      <c r="I43" s="70"/>
-      <c r="J43" s="78"/>
-      <c r="L43" s="54" t="s">
+      <c r="I43" s="36"/>
+      <c r="J43" s="42"/>
+      <c r="L43" s="28" t="s">
         <v>687</v>
       </c>
-      <c r="M43" s="55" t="s">
+      <c r="M43" s="29" t="s">
         <v>688</v>
       </c>
-      <c r="N43" s="93" t="s">
+      <c r="N43" s="66" t="s">
         <v>675</v>
       </c>
-      <c r="O43" s="94"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="57">
+      <c r="O43" s="67"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="31">
         <v>0</v>
       </c>
-      <c r="S43" s="55"/>
-      <c r="T43" s="81"/>
-      <c r="V43" s="58" t="s">
+      <c r="S43" s="29"/>
+      <c r="T43" s="45"/>
+      <c r="V43" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="59" t="s">
+      <c r="W43" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="X43" s="97" t="s">
+      <c r="X43" s="68" t="s">
         <v>769</v>
       </c>
-      <c r="Y43" s="98"/>
-      <c r="Z43" s="64"/>
-      <c r="AA43" s="65"/>
-      <c r="AB43" s="60" t="s">
+      <c r="Y43" s="69"/>
+      <c r="Z43" s="62"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="AC43" s="59"/>
-      <c r="AD43" s="61"/>
+      <c r="AC43" s="33"/>
+      <c r="AD43" s="35"/>
     </row>
     <row r="44" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="32" t="s">
         <v>654</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="D44" s="97" t="s">
+      <c r="D44" s="68" t="s">
         <v>516</v>
       </c>
-      <c r="E44" s="98"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="73" t="s">
+      <c r="E44" s="69"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="I44" s="59"/>
-      <c r="J44" s="61"/>
-      <c r="L44" s="54" t="s">
+      <c r="I44" s="33"/>
+      <c r="J44" s="35"/>
+      <c r="L44" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="M44" s="55" t="s">
+      <c r="M44" s="29" t="s">
         <v>689</v>
       </c>
-      <c r="N44" s="93" t="s">
+      <c r="N44" s="66" t="s">
         <v>573</v>
       </c>
-      <c r="O44" s="94"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="57" t="s">
+      <c r="O44" s="67"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="31" t="s">
         <v>690</v>
       </c>
-      <c r="S44" s="55"/>
-      <c r="T44" s="81"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="45"/>
     </row>
     <row r="45" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L45" s="54" t="s">
+      <c r="L45" s="28" t="s">
         <v>691</v>
       </c>
-      <c r="M45" s="55" t="s">
+      <c r="M45" s="29" t="s">
         <v>692</v>
       </c>
-      <c r="N45" s="93" t="s">
+      <c r="N45" s="66" t="s">
         <v>693</v>
       </c>
-      <c r="O45" s="94"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="57" t="s">
+      <c r="O45" s="67"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="31" t="s">
         <v>690</v>
       </c>
-      <c r="S45" s="55"/>
-      <c r="T45" s="81"/>
-      <c r="V45" s="83" t="s">
+      <c r="S45" s="29"/>
+      <c r="T45" s="45"/>
+      <c r="V45" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="W45" s="84" t="s">
+      <c r="W45" s="53" t="s">
         <v>770</v>
       </c>
-      <c r="X45" s="85"/>
-      <c r="Y45" s="85"/>
-      <c r="Z45" s="85"/>
-      <c r="AA45" s="85"/>
-      <c r="AB45" s="85"/>
-      <c r="AC45" s="85"/>
-      <c r="AD45" s="86"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="54"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="55"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="53" t="s">
         <v>777</v>
       </c>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="86"/>
-      <c r="L46" s="54" t="s">
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="55"/>
+      <c r="L46" s="28" t="s">
         <v>694</v>
       </c>
-      <c r="M46" s="55" t="s">
+      <c r="M46" s="29" t="s">
         <v>695</v>
       </c>
-      <c r="N46" s="93" t="s">
+      <c r="N46" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="O46" s="94"/>
-      <c r="P46" s="66"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="57" t="s">
+      <c r="O46" s="67"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="31" t="s">
         <v>696</v>
       </c>
-      <c r="S46" s="55"/>
-      <c r="T46" s="81"/>
-      <c r="V46" s="87" t="s">
+      <c r="S46" s="29"/>
+      <c r="T46" s="45"/>
+      <c r="V46" s="48" t="s">
         <v>658</v>
       </c>
-      <c r="W46" s="88" t="s">
+      <c r="W46" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="X46" s="90" t="s">
+      <c r="X46" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="Y46" s="91"/>
-      <c r="Z46" s="90" t="s">
+      <c r="Y46" s="59"/>
+      <c r="Z46" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AA46" s="91"/>
-      <c r="AB46" s="88" t="s">
+      <c r="AA46" s="59"/>
+      <c r="AB46" s="49" t="s">
         <v>610</v>
       </c>
-      <c r="AC46" s="88" t="s">
+      <c r="AC46" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="AD46" s="89" t="s">
+      <c r="AD46" s="50" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="C47" s="88" t="s">
+      <c r="C47" s="49" t="s">
         <v>774</v>
       </c>
-      <c r="D47" s="90" t="s">
+      <c r="D47" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="E47" s="91"/>
-      <c r="F47" s="90" t="s">
+      <c r="E47" s="59"/>
+      <c r="F47" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="91"/>
-      <c r="H47" s="88" t="s">
+      <c r="G47" s="59"/>
+      <c r="H47" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="I47" s="88" t="s">
+      <c r="I47" s="49" t="s">
         <v>775</v>
       </c>
-      <c r="J47" s="89" t="s">
+      <c r="J47" s="50" t="s">
         <v>776</v>
       </c>
-      <c r="L47" s="54" t="s">
+      <c r="L47" s="28" t="s">
         <v>697</v>
       </c>
-      <c r="M47" s="55" t="s">
+      <c r="M47" s="29" t="s">
         <v>698</v>
       </c>
-      <c r="N47" s="93" t="s">
+      <c r="N47" s="66" t="s">
         <v>573</v>
       </c>
-      <c r="O47" s="94"/>
-      <c r="P47" s="66"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="57" t="s">
+      <c r="O47" s="67"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="S47" s="55"/>
-      <c r="T47" s="81"/>
-      <c r="V47" s="54" t="s">
+      <c r="S47" s="29"/>
+      <c r="T47" s="45"/>
+      <c r="V47" s="28" t="s">
         <v>771</v>
       </c>
-      <c r="W47" s="55" t="s">
+      <c r="W47" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="X47" s="68" t="s">
+      <c r="X47" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="Y47" s="69"/>
-      <c r="Z47" s="66"/>
-      <c r="AA47" s="67"/>
-      <c r="AB47" s="56" t="s">
+      <c r="Y47" s="65"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="AC47" s="56" t="s">
+      <c r="AC47" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="AD47" s="53"/>
+      <c r="AD47" s="27"/>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="28" t="s">
         <v>778</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="29" t="s">
         <v>782</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="64" t="s">
         <v>649</v>
       </c>
-      <c r="E48" s="69"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="53"/>
-      <c r="L48" s="54" t="s">
+      <c r="E48" s="65"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="27"/>
+      <c r="L48" s="28" t="s">
         <v>699</v>
       </c>
-      <c r="M48" s="55" t="s">
+      <c r="M48" s="29" t="s">
         <v>700</v>
       </c>
-      <c r="N48" s="93" t="s">
+      <c r="N48" s="66" t="s">
         <v>693</v>
       </c>
-      <c r="O48" s="94"/>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="57" t="s">
+      <c r="O48" s="67"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="31" t="s">
         <v>701</v>
       </c>
-      <c r="S48" s="77"/>
-      <c r="T48" s="81"/>
-      <c r="V48" s="54" t="s">
+      <c r="S48" s="41"/>
+      <c r="T48" s="45"/>
+      <c r="V48" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="W48" s="55" t="s">
+      <c r="W48" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="X48" s="93" t="s">
+      <c r="X48" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="Y48" s="94"/>
-      <c r="Z48" s="66"/>
-      <c r="AA48" s="67"/>
-      <c r="AB48" s="57" t="s">
+      <c r="Y48" s="67"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="31" t="s">
         <v>666</v>
       </c>
-      <c r="AC48" s="56" t="s">
+      <c r="AC48" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="AD48" s="53"/>
+      <c r="AD48" s="27"/>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="29" t="s">
         <v>783</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="64" t="s">
         <v>649</v>
       </c>
-      <c r="E49" s="69"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="53"/>
-      <c r="L49" s="54" t="s">
+      <c r="E49" s="65"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="27"/>
+      <c r="L49" s="28" t="s">
         <v>702</v>
       </c>
-      <c r="M49" s="55" t="s">
+      <c r="M49" s="29" t="s">
         <v>703</v>
       </c>
-      <c r="N49" s="93" t="s">
+      <c r="N49" s="66" t="s">
         <v>693</v>
       </c>
-      <c r="O49" s="94"/>
-      <c r="P49" s="66"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="57" t="s">
+      <c r="O49" s="67"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="31" t="s">
         <v>696</v>
       </c>
-      <c r="S49" s="77"/>
-      <c r="T49" s="81"/>
-      <c r="V49" s="54" t="s">
+      <c r="S49" s="41"/>
+      <c r="T49" s="45"/>
+      <c r="V49" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="W49" s="55" t="s">
+      <c r="W49" s="29" t="s">
         <v>773</v>
       </c>
-      <c r="X49" s="93" t="s">
+      <c r="X49" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="Y49" s="94"/>
-      <c r="Z49" s="66"/>
-      <c r="AA49" s="67"/>
-      <c r="AB49" s="57" t="s">
+      <c r="Y49" s="67"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="AC49" s="56" t="s">
+      <c r="AC49" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="AD49" s="53"/>
+      <c r="AD49" s="27"/>
     </row>
     <row r="50" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="28" t="s">
         <v>780</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="29" t="s">
         <v>785</v>
       </c>
-      <c r="D50" s="68" t="s">
+      <c r="D50" s="64" t="s">
         <v>649</v>
       </c>
-      <c r="E50" s="69"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="53"/>
-      <c r="L50" s="76" t="s">
+      <c r="E50" s="65"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="27"/>
+      <c r="L50" s="40" t="s">
         <v>704</v>
       </c>
-      <c r="M50" s="77" t="s">
+      <c r="M50" s="41" t="s">
         <v>705</v>
       </c>
-      <c r="N50" s="93" t="s">
+      <c r="N50" s="66" t="s">
         <v>665</v>
       </c>
-      <c r="O50" s="94"/>
-      <c r="P50" s="66"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="57" t="s">
+      <c r="O50" s="67"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="31" t="s">
         <v>690</v>
       </c>
-      <c r="S50" s="77"/>
-      <c r="T50" s="81"/>
-      <c r="V50" s="58" t="s">
+      <c r="S50" s="41"/>
+      <c r="T50" s="45"/>
+      <c r="V50" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="W50" s="59" t="s">
+      <c r="W50" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="X50" s="71" t="s">
+      <c r="X50" s="60" t="s">
         <v>516</v>
       </c>
-      <c r="Y50" s="72"/>
-      <c r="Z50" s="64"/>
-      <c r="AA50" s="65"/>
-      <c r="AB50" s="60" t="s">
+      <c r="Y50" s="61"/>
+      <c r="Z50" s="62"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="AC50" s="59"/>
-      <c r="AD50" s="61"/>
+      <c r="AC50" s="33"/>
+      <c r="AD50" s="35"/>
     </row>
     <row r="51" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="33" t="s">
         <v>786</v>
       </c>
-      <c r="D51" s="71" t="s">
+      <c r="D51" s="60" t="s">
         <v>784</v>
       </c>
-      <c r="E51" s="72"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="61"/>
-      <c r="L51" s="76" t="s">
+      <c r="E51" s="61"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="35"/>
+      <c r="L51" s="40" t="s">
         <v>706</v>
       </c>
-      <c r="M51" s="77" t="s">
+      <c r="M51" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="N51" s="93" t="s">
+      <c r="N51" s="66" t="s">
         <v>665</v>
       </c>
-      <c r="O51" s="94"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="57" t="s">
+      <c r="O51" s="67"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="31" t="s">
         <v>696</v>
       </c>
-      <c r="S51" s="77"/>
-      <c r="T51" s="81"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="45"/>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="L52" s="76" t="s">
+      <c r="L52" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="M52" s="77" t="s">
+      <c r="M52" s="41" t="s">
         <v>709</v>
       </c>
-      <c r="N52" s="93" t="s">
+      <c r="N52" s="66" t="s">
         <v>665</v>
       </c>
-      <c r="O52" s="94"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="67"/>
-      <c r="R52" s="57" t="s">
+      <c r="O52" s="67"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="31" t="s">
         <v>696</v>
       </c>
-      <c r="S52" s="77"/>
-      <c r="T52" s="81"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="45"/>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="L53" s="76" t="s">
+      <c r="L53" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="M53" s="77" t="s">
+      <c r="M53" s="41" t="s">
         <v>711</v>
       </c>
-      <c r="N53" s="93" t="s">
+      <c r="N53" s="66" t="s">
         <v>693</v>
       </c>
-      <c r="O53" s="94"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="57" t="s">
+      <c r="O53" s="67"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="31" t="s">
         <v>701</v>
       </c>
-      <c r="S53" s="77"/>
-      <c r="T53" s="81"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="45"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="L54" s="76" t="s">
+      <c r="L54" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="M54" s="77" t="s">
+      <c r="M54" s="41" t="s">
         <v>713</v>
       </c>
-      <c r="N54" s="93" t="s">
+      <c r="N54" s="66" t="s">
         <v>714</v>
       </c>
-      <c r="O54" s="94"/>
-      <c r="P54" s="66"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="57" t="s">
+      <c r="O54" s="67"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="S54" s="77"/>
-      <c r="T54" s="81"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="45"/>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="L55" s="76" t="s">
+      <c r="L55" s="40" t="s">
         <v>715</v>
       </c>
-      <c r="M55" s="77" t="s">
+      <c r="M55" s="41" t="s">
         <v>716</v>
       </c>
-      <c r="N55" s="93" t="s">
+      <c r="N55" s="66" t="s">
         <v>717</v>
       </c>
-      <c r="O55" s="94"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="67"/>
-      <c r="R55" s="57" t="s">
+      <c r="O55" s="67"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="31" t="s">
         <v>696</v>
       </c>
-      <c r="S55" s="77"/>
-      <c r="T55" s="81"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="45"/>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="L56" s="76" t="s">
+      <c r="L56" s="40" t="s">
         <v>718</v>
       </c>
-      <c r="M56" s="77" t="s">
+      <c r="M56" s="41" t="s">
         <v>719</v>
       </c>
-      <c r="N56" s="93" t="s">
+      <c r="N56" s="66" t="s">
         <v>507</v>
       </c>
-      <c r="O56" s="94"/>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="57" t="s">
+      <c r="O56" s="67"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="S56" s="77"/>
-      <c r="T56" s="81"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="45"/>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="L57" s="76" t="s">
+      <c r="L57" s="40" t="s">
         <v>720</v>
       </c>
-      <c r="M57" s="77" t="s">
+      <c r="M57" s="41" t="s">
         <v>721</v>
       </c>
-      <c r="N57" s="93" t="s">
+      <c r="N57" s="66" t="s">
         <v>507</v>
       </c>
-      <c r="O57" s="94"/>
-      <c r="P57" s="66"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="57" t="s">
+      <c r="O57" s="67"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="S57" s="77"/>
-      <c r="T57" s="81"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="45"/>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="L58" s="76" t="s">
+      <c r="L58" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="M58" s="77" t="s">
+      <c r="M58" s="41" t="s">
         <v>723</v>
       </c>
-      <c r="N58" s="93" t="s">
+      <c r="N58" s="66" t="s">
         <v>714</v>
       </c>
-      <c r="O58" s="94"/>
-      <c r="P58" s="66"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="57" t="s">
+      <c r="O58" s="67"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="31" t="s">
         <v>696</v>
       </c>
-      <c r="S58" s="77"/>
-      <c r="T58" s="81"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="45"/>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="L59" s="76" t="s">
+      <c r="L59" s="40" t="s">
         <v>724</v>
       </c>
-      <c r="M59" s="77" t="s">
+      <c r="M59" s="41" t="s">
         <v>725</v>
       </c>
-      <c r="N59" s="93" t="s">
+      <c r="N59" s="66" t="s">
         <v>714</v>
       </c>
-      <c r="O59" s="94"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="57" t="s">
+      <c r="O59" s="67"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="31" t="s">
         <v>696</v>
       </c>
-      <c r="S59" s="77"/>
-      <c r="T59" s="81"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="45"/>
     </row>
     <row r="60" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L60" s="79" t="s">
+      <c r="L60" s="43" t="s">
         <v>727</v>
       </c>
-      <c r="M60" s="80" t="s">
+      <c r="M60" s="44" t="s">
         <v>726</v>
       </c>
-      <c r="N60" s="71" t="s">
+      <c r="N60" s="60" t="s">
         <v>728</v>
       </c>
-      <c r="O60" s="72"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="60" t="s">
+      <c r="O60" s="61"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="63"/>
+      <c r="R60" s="34" t="s">
         <v>696</v>
       </c>
-      <c r="S60" s="80"/>
-      <c r="T60" s="82"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="282">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="N59:O59"/>
     <mergeCell ref="N50:O50"/>
     <mergeCell ref="N51:O51"/>
@@ -9706,11 +9658,17 @@
     <mergeCell ref="N47:O47"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
@@ -9720,26 +9678,19 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="X48:Y48"/>
     <mergeCell ref="Z48:AA48"/>
@@ -9857,6 +9808,10 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="D29:E29"/>
@@ -9890,6 +9845,7 @@
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="X21:Y21"/>
     <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="M14:T14"/>
@@ -9937,17 +9893,12 @@
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="M2:T2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
@@ -9957,17 +9908,15 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
